--- a/event_category/events.xlsx
+++ b/event_category/events.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Events" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,52 +422,57 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Event Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Date ISO</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Date ISO</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Target Group</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Target Group Normalized</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Event URL</t>
         </is>
@@ -488,536 +481,593 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Papperspyssel Tema: Ljus och   vinter</t>
+          <t>KONVEX</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Måndag 22 december 2025</t>
+          <t>Torsdag 13 november  - torsdag 8 januari 2026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10:00-17:00</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Stadsbiblioteket Spelbomskan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Barn</t>
+          <t>Kulturbiblioteket, Kulturhuset</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>Vuxna</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>scheduled</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Stadsbiblioteket Spelbomskan Skaparbordet i aktivitetsrummet är uppdukat med inspirerande material för pyssel på egen hand.
-För barnfamiljer.</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/evenemang/papperspyssel-tema-ljus-och-vinter-2</t>
+          <t>Kulturbiblioteket, Kulturhuset Seendets fokus oscillerar mellan det lilla och det stora, detaljen och överblicken. I grupputställningen "KONVEX" på Kulturbiblioteket i Stockholm möter betraktaren tre olika konstnärers arbeten. Måleri, skulptur och performance tittar närmare på fragment som utgör delar av ens identitet samt människans åverkan på land och hav. Genom utställningsaffischen, som använder sig av en sektionsritning över Kulturhuset från 1974, bjuds betraktaren in till en manövrering mellan perspektiv, sanning och synvilla som fortplantar sig till utställningsgolvet. I installationen med måleri av utforskas den bärande beståndsdelen i hans tidigare verk. skulptur undersöker utopin om jämvikt med utgångspunkt från havet. Och i Celsingtrappan ställs den modernistiska arkitekturen i relation till den svenska självbilden i performanceverket av . Utställningen befinner sig i ett oupphörligt tillstånd av nära och långt bort. Och avslöjar fragment av händer, sorger och spiraler. Torsdag 13 november kl. 17:00-19:30. Vernissagekvällen 13 november kl. 18:00 Tisdag 18 november kl. 15:00 Tisdag 25 november kl. 15:00 Torsdag 27 november kl. 15:00 Samling vid Celsingtrappan i Kulturbiblioteket. (f. 1995, Borlänge) är en konstnär baserad i Stockholm. Han arbetar med måleri, teckning och text, där kroppens minnen, relationer och erfarenheter blir till bild. Genom visuella kontraster och figurativa fragment undersöker han det ömtåliga i våra berättelser och hur intimitet, sårbarhet och minnen kan förvandlas till visuella världar. Han är utbildad i fri konst vid Konstfack och har tidigare tilldelats Hörselskadades Riksförbund kulturpris (2021) för sitt konstnärliga arbete. Utöver sina utställningar har Hampus genomfört flera offentliga gestaltningar, bland annat väggmålningen Daisy (2023) i Göteborg på uppdrag av Trafikverket, samt en konstnärlig utsmyckning för Egeryds fastigheter i Örebro (2025). Hans verk har visats både i Sverige och internationellt, bland annat i London. (f.1992, Uppsala) är en iransk-svensk konstnär som studerar masterprogrammet i konst på Konstfack. Hennes arbeten vilar i gränslandet mellan vetenskap, poesi och filosofi. Genom skulptur, ljudverk och performance har hon i tidigare konstverk fördjupat sig i teman som berör Karunfloden i Iran, tidsresor genom skulpturer, minnen av salt och vem som kan återvända till jord. Fragment av ljus och mörker vibrerar alltid som en underton i hennes verk. Cariz Nordlöfs verk har bland annat visats i Botaniska trädgården i Uppsala, på konsthallen Accelerator i Stockholm och Motala industrimuseum. (f.1994, Stockholm) arbetar interdisciplinärt med konst och arkitektur genom teman som nationsbyggande, industri och modernitet. Hennes praktik verkar i en konceptuell och minimalistisk tradition som spänner över skulptur och rumsliga kompositioner. Verken reflekterar över våra gemensamma rum och kollektiva objekt som projektionsytor för politik och ekonomi. Sahba är utbildad på institutionen för Konst på Konstfack och Arkitekturskolan vid KTH. Hon har tidigare ställt ut på Bonniers konsthall, Nobel Week Lights och Nomas* Projects i Skottland, samt deltagit i skissuppdraget som en del av konstkollektivet .</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/konvex-1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Klä biblioteksgranen och pynta   biblioteket</t>
+          <t>Bromma Arbetsmarknadscenter ställer   ut</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Måndag 22 december  - tisdag 23 december 2025</t>
+          <t>Måndag 1 december  - måndag 29 december 2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bredängs bibliotek</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Barn, Unga</t>
+          <t>Blackebergs bibliotek</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>Vuxna, Unga, Barn</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>scheduled</t>
+          <t>children_and_adults</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Bredängs bibliotek Hjälp oss att göra biblioteket julfint genom att klä granen och pynta tillsammans!</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/evenemang/kla-biblioteksgranen-och-pynta-biblioteket-1</t>
+          <t>Blackebergs bibliotek Får vi lov att presentera Bromma Arbetsmarknadscenter på Blackebergs bibliotek. Välkommen in för att titta på vad deltagarna gjort i sina verkstäder. 
+Bromma arbetsmarknadscenter är en socialpsykiatrisk biståndsbedömd sysselsättning.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/bromma-arbetsmarknadscenter-staller-ut-2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>After   föris</t>
+          <t>Poesicollage av Tiina Maria   Sasso</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Måndag 22 december 2025</t>
+          <t>Måndag 1 december  - tisdag 30 december 2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16:00-16:30</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Skarpnäcks bibliotek</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Barn</t>
+          <t>Alviks bibliotek</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>Vuxna, Unga</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>scheduled</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Skarpnäcks bibliotek Vi bjuder på frukt och högläsning, eller något annat kul. För förskolebarn med medföljande vuxen. Drop-in!</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/evenemang/after-foris-89</t>
+          <t>Alviks bibliotek Utställning med Tiina Maria Sasso från Finland som visar poesicollage under december. Tiina Maria Sasso är författare till flera böcker, "Livets fiskedrag", "Tango" och "Da capo".  Böckerna är både på svenska och finska. Denna utställning har uppstått som en biprodukt vid skapandet av min tredje bok. Ibland verkar livet grått och glädjelöst, just då är det extra viktigt att leta efter ljus och färger på de mest oväntade ställen. Jag hoppas att alla som besöker utställningen, oberoende av ålder, upplever glada och lekfulla stunder. Utställningen är tillägnad mitt första barnbarn Eddie Atlas.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/poesicollage-av-tiina-maria-sasso-1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sagokistan</t>
+          <t>Endtime   Fantasies</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Måndag 22 december 2025</t>
+          <t>Torsdag 4 december  - tisdag 30 december 2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15:30-15:30</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kista bibliotek</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Barn, Alla åldrar, men böckerna riktar sig mot barn 3-6</t>
+          <t>Hornstulls bibliotek</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>children_and_all_ages</t>
+          <t>Vuxna</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>scheduled</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Kista bibliotek Vilken bok finns i vår sagokista? Var med varje vardag innan jullovet när vi öppnar sagokistan och läser en vintrig saga tillsammans!</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/evenemang/sagoluckan-16</t>
+          <t>Hornstulls bibliotek “Jag är nog inte ensam om att känna att mänskligheten står vid ett vägskäl, och en sak är säker: där det finns oro över framtiden, trauma att hantera eller behov och önskan om radikal förändring, där finns det plats och relevans för en apokalyptisk fantasi. Detta är min.”
+— Emely “The Fleurs” Majrell Vernissage torsdag den 4 december kl. 16-18 Välkomna! I en tid präglad av krig, våld och miljöhot föddes idén till det konstnärliga forskningsarbetet . I detta arbete har Emely “The Fleurs” Majrell utforskat det konstnärliga uttrycket av apokalypsen och dess roll i att spegla mänsklighetens fantasier, rädslor och trauman. Fotografier tagna i The Fleurs omgivning, element hämtade från internationell media samt symboler från både sekulära och religiösa apokalyptiska berättelser sammanflätas i en serie bestående av 27 fotomontager. Varje bild har en direkt koppling till ett kapitel och en mening ur Uppenbarelseboken. Boken, som ofta betraktas som urmodern till alla apokalypser, fungerar som en kronologi att följa genom projektet. Betraktaren får följa apokalypsens utveckling genom konsthistorien och ta del av hur temat har fungerat som ett verktyg för konstnärer att reflektera över samtida samhällsproblem, samtidigt som arbetet bjuder in till reflektion över vår tids stora frågor. Att kombinera fantasi med verklighet är hennes signum. Under alter egot skapar Emely Majrell konst som rör sig i gränslandet där ljus och mörker kolliderar. Skapandet av hennes verk innefattar flera omgångar av förstörelse och återuppbyggnad av hennes egna bilder. På så sätt får verken flera lager och tolkningsmöjligheter, som alltid har sitt ursprung i hennes intresse för filosofi och psykologi. Instagram : hemsida:</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/endtimes-fantasies-1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Skapa juliga   armband</t>
+          <t>Utställning: Andreas   Nielsen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Måndag 22 december 2025</t>
+          <t>Måndag 15 december  - söndag 11 januari 2026</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14:30-16:00</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Husby bibliotek</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Barn, Unga</t>
+          <t>Farsta bibliotek</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>Vuxna, Unga</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>scheduled</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Husby bibliotek Vi gör roliga och festliga armband i julens färger. Missa inte!
-För dig 6 till 13 år. Drop-in!</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/evenemang/skapa-juliga-armband-1</t>
+          <t>Farsta bibliotek Andreas ”sobelow” Nielsen är född och uppvuxen i Farsta. Han är självlärd fotograf, och har fotat till och från sedan barnsben. Hans foton saknar ofta människor, vilket ger en nästan spöklik känsla av en folktom stad där livet pågår någon annanstans. Andreas Nielsen har tillsammans med poeten Jens ”Gatuduvan” Åberg gett ut dikt- och fotoboken ”Minns du när vi flög längs parkvägarna” (2025). Se mer på Instagram: @sobelow365</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/utstallning-andreas-nielsen-1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rimstuga</t>
+          <t>Mellanvärld av Majbritt   Lidbo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Måndag 22 december 2025</t>
+          <t>Onsdag 17 december  - onsdag 7 januari 2026</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bredängs bibliotek</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Barn, Unga</t>
+          <t>Lava, Kulturhuset</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>Unga, Vuxna</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>scheduled</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Bredängs bibliotek Få hjälp att skriva de perfekta julklappsrimmen!</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/evenemang/rimstuga-1</t>
+          <t>Lava, Kulturhuset Liv inuti liv.
+Liv i tomheten.
+Liv i mellanrummen.
+Min blick skiftar, och världen skiftar med den.  
+Här dröjer det som annars glider snabbt förbi. 
+Jag visar er ett tillstånd- ett skikt mellan skikten. 
+Vi är här. Vi är inte här. Våra själar är. Majbritt speglar sin inre värld genom måleri, videokonst och skulptur, där varje verk blir en förlängning av hennes intuitiva och känslomässiga språk. Genom surrealistiska, abstrakta och organiska uttryck gestaltar hon den komplexa erfarenheten av att vara vid liv, samtidigt som hon utforskar livets förgänglighet och övergången mot efterlivet. I sitt skapande söker hon även det gudomliga som döljer sig i mellanrummen, i de korta, nästan obemärkta ögonblick som far förbi och förvandlas till undermedvetna känslor. Det är dessa stilla skarvar mellan tidens andetag som, tillsammans, formar livet i sin helhet. Majbritts djupa själsliga koppling till djur löper som en röd tråd genom hennes arbete, där återkommande djurmotiv fungerar som symboler för både inre tillstånd och existentiella frågor. Genom sin konst ifrågasätter hon livets abstrakta tidslinje, dess innebörd och människans plats på jorden, liksom hur det förflutna, nuet och framtiden vävs samman i ett större existentiellt sammanhang. Vernissage onsdag 17 december kl 17-18 Utställningen pågår tom 7 januari kl 18</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/mellanvarld-av-majbritt-lidbo-1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lovbokklubb för 9-12   år</t>
+          <t>Tipsunda om   vintern!</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Måndag 22 december 2025</t>
+          <t>Fredag 19 december  - lördag 10 januari 2026</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tranströmerbiblioteket</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Barn, 9-12 år</t>
+          <t>Husby bibliotek</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>children</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tranströmerbiblioteket Du behöver Vill du ha planer på lovet?
-Gillar du böcker och fika?
-Är du 9-12 år? Perfekt! Kom och var med på lovbokklubb! 
-Vi träffas på barnavdelningen måndag 22 december klockan 15-16.
-Till träffen läser vi Kolvinge av Kerstin Lundberg Hahn och Maud Mangold, som vi valt gemensamt. Boken finns att låna på Tranströmerbibliotekets barnavdelning. Glöm inte att anmäla dig!
-Ps. På träffen pratar du så mycket eller så lite du vill. Huvudsaken är att vi har kul tillsammans! Biblioteket bjuder på fika. Evenemanget är gratis, men du måste boka plats. Det finns 12 lediga platser .</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/evenemang/lovbokklubb-for-9-12-ar-1</t>
+          <t>Husby bibliotek Kom och klura på våra frågor om vinter. Vinnarna kommer tilldelas fina priser. 
+För dig 6–12 år.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/tipsunda-om-vintern-1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Julpyssel i   ateljén</t>
+          <t>Jullovsquiz</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Måndag 22 december 2025</t>
+          <t>Fredag 19 december  - måndag 5 januari 2026</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kungsholmens bibliotek Internationella biblioteket</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Barn, Unga</t>
+          <t>Skärholmens bibliotek</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>Barn, Unga, Barn, unga</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>children</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Kungsholmens bibliotek Internationella biblioteket Kom och varva ned i julstöket genom att skapa tillsammans i bibliotekets ateljé. Vi erbjuder ett stämningsfullt julpyssel för barnfamiljer med material och idéer som inspirerar. Pysslet passar både stora och små, och allt material finns på plats.</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/evenemang/julpyssel-i-ateljen-1</t>
+          <t>Skärholmens bibliotek Vad kan du om julen och vintersporter ?  
+Testa dina kunskaper i i bibliotekets tipspromenad. 
+Frågesporten sitter uppe under bibliotekets ordinarie öppettider från 19 december till och med 5 januari. Du har möjlighet att vinna en bok!</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/jullovsquiz-1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vinterhögläsning</t>
+          <t>Vinterfrågesport</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Måndag 22 december 2025</t>
+          <t>Lördag 20 december  - måndag 5 januari 2026</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13:00-13:45</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Bredängs bibliotek</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Barn, Unga</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>children</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Bredängs bibliotek Kom och lyssna när vi högläser en mysig vintersaga!</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/evenemang/vinterhoglasning-1</t>
+          <t>Bredängs bibliotek Testa dina kunskaper i vår frågesport om jul och vinter och få chans att vinna en liten gåva!</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/vinterfragesport-1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Julpappersverkstad</t>
+          <t>Författar-rebusar!</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Måndag 22 december 2025</t>
+          <t>Lördag 20 december  - måndag 5 januari 2026</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13:00-17:00</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Östermalms bibliotek, Fältöversten</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Bredängs bibliotek</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Barn, Unga</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>children</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Östermalms bibliotek, Fältöversten Kom till biblioteket och skapa ditt eget julpapper att slå in klapparna med! Varmt välkomna!
-För barnfamiljer.</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/evenemang/julpappersverkstad-1</t>
+          <t>Bredängs bibliotek Lös våra kluriga författar-rebusar och få chans att vinna en liten gåva!</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forfattar-rebusar-1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sagostund: Att resa runt i   världen</t>
+          <t>Klä biblioteksgranen och pynta   biblioteket</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Måndag 22 december 2025</t>
+          <t>Måndag 22 december  - tisdag 23 december 2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1027,96 +1077,106 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13:00-13:45</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tranströmerbiblioteket</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Barn</t>
+          <t>Bredängs bibliotek</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>Barn, Unga</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>children</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tranströmerbiblioteket Tänk vad många länder man kan besöka och lära känna lite grann genom att läsa en bok. Vi högläser bilderböcker från olika delar av världen. Passar barn från cirka 3 år.  Drop in.</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/evenemang/sagostund-att-resa-runt-i-varlden--1</t>
+          <t>Bredängs bibliotek Hjälp oss att göra biblioteket julfint genom att klä granen och pynta tillsammans!</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/kla-biblioteksgranen-och-pynta-biblioteket-1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TenstaSpelar gästar   bibblan</t>
+          <t>Filosoficafé</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Måndag 22 december 2025</t>
+          <t>Tisdag 23 december 2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14:00-17:00</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tensta bibliotek</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Barn, Unga, 8 år uppåt. Yngre barn kan delta i sällskap av vuxen.</t>
+          <t>Östermalms bibliotek, Fältöversten</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>children_and_adults</t>
+          <t>Vuxna</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>scheduled</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tensta bibliotek Bästa bräd- och kortspelsklubben kommer på besök. Lär dig nya spel som Ticket to Ride eller Cryptid. Favoriter som UNO och schack har vi självklart på plats. Utmana dina syskon, ta med vänner!</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/evenemang/tenstaspelar-gastar-biblan-1</t>
+          <t>Östermalms bibliotek, Fältöversten Välkommen till filosoficafé på Östermalms bibliotek. Du behöver inga förkunskaper för att delta, bara nyfikenhet och ett öppet sinne!  Temat för denna gång är mänskliga relationer. Träffen som skulle ägs rum den 16 december utgår och ersätts av detta tillfälle istället, vilket blir sista gången för terminen. Du behöver inte förboka en biljett. Programmet är kostnadsfritt. Varmt välkommen!</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/filosoficafe-45</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Julpyssel i   ateljén</t>
+          <t>Papperspyssel tema: Ljus och   vinter</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1131,37 +1191,43 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kungsholmens bibliotek Internationella biblioteket</t>
+          <t>12:00-17:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Barn, Unga</t>
+          <t>Stadsbiblioteket Spelbomskan</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>children</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Kungsholmens bibliotek Internationella biblioteket Kom och varva ned i julstöket genom att skapa tillsammans i bibliotekets ateljé. Vi erbjuder ett stämningsfullt julpyssel för barnfamiljer med material och idéer som inspirerar. Pysslet passar både stora och små, och allt material finns på plats.</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/evenemang/julpyssel-i-ateljen-2</t>
+          <t>Stadsbiblioteket Spelbomskan Skaparbordet i aktivitetsrummet är uppdukat med inspirerande material för pyssel på egen hand. 
+För barnfamiljer.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/papperspyssel-tema-ljus-och-vinter-3</t>
         </is>
       </c>
     </row>
@@ -1183,36 +1249,41 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>13:00-15:00</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Tranströmerbiblioteket</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Barn, För barn i alla åldrar.</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>children_and_all_ages</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>Tranströmerbiblioteket Nytt år — nya förväntningar och förhoppningar! Vad ser du fram emot 2026? Vad drömmer du om? Vi 
 målar ett önsketräd i ateljén tillsammans. Drop-in.</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>https://biblioteket.stockholm.se/evenemang/nyarsatelje-kom-och-skapa-ett-onsketrad-3</t>
         </is>
@@ -1236,35 +1307,40 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>13:00-17:00</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Östermalms bibliotek, Fältöversten</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Barn, Unga</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>children</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>Östermalms bibliotek, Fältöversten Vi skapar kreativa julkort tillsammans och myser inför jul! Välkomna! Från 6 år och uppåt.</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>https://biblioteket.stockholm.se/evenemang/julkortsverkstad-1</t>
         </is>
@@ -1288,35 +1364,40 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>13:30-15:00</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Hornstulls bibliotek</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Barn, Från 3 år</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>children</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>Hornstulls bibliotek Under vardagarna 23 december - 2 januari tar biblioteket emot två feriearbetande ungdomar som kommer bjuda på eftermiddagspyssel för pysselsugna barn! Det blir bland annat julgranskulor, smällkarameller, vykort och annat pyssel. Drop in. Välkommen!</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>https://biblioteket.stockholm.se/evenemang/pyssel-i-ateljen-for-barn-1</t>
         </is>
@@ -1325,7 +1406,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Papperspyssel tema: Ljus och   vinter</t>
+          <t>Julpyssel i   ateljén</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1340,45 +1421,49 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12:00-17:00</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Stadsbiblioteket Spelbomskan</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Barn</t>
+          <t>Kungsholmens bibliotek Internationella biblioteket</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>Barn, Unga</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>children</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Stadsbiblioteket Spelbomskan Skaparbordet i aktivitetsrummet är uppdukat med inspirerande material för pyssel på egen hand. 
-För barnfamiljer.</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/evenemang/papperspyssel-tema-ljus-och-vinter-3</t>
+          <t>Kungsholmens bibliotek Internationella biblioteket Kom och varva ned i julstöket genom att skapa tillsammans i bibliotekets ateljé. Vi erbjuder ett stämningsfullt julpyssel för barnfamiljer med material och idéer som inspirerar. Pysslet passar både stora och små, och allt material finns på plats.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/julpyssel-i-ateljen-2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Filosoficafé</t>
+          <t>Prova Cricut   Maker</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1393,44 +1478,49 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Östermalms bibliotek, Fältöversten</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vuxna</t>
+          <t>Bredängs bibliotek</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>adults</t>
+          <t>Barn, Unga, mellanstadiet och uppåt</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>scheduled</t>
+          <t>children</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Östermalms bibliotek, Fältöversten Välkommen till filosoficafé på Östermalms bibliotek. Du behöver inga förkunskaper för att delta, bara nyfikenhet och ett öppet sinne!  Temat för denna gång är mänskliga relationer. Träffen som skulle ägs rum den 16 december utgår och ersätts av detta tillfälle istället, vilket blir sista gången för terminen. Du behöver inte förboka en biljett. Programmet är kostnadsfritt. Varmt välkommen!</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/evenemang/filosoficafe-45</t>
+          <t>Bredängs bibliotek Testa vår Cricut Maker-maskin! Skär, klipp och skapa egna kort och märken! Passa på att göra något personligt och unikt. Vi bjuder på ett urval av material, men mängden är begränsad.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/prova-cricut-maker-1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Prova Cricut   Maker</t>
+          <t>Brodera   magneter</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1445,1652 +1535,4123 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bredängs bibliotek</t>
+          <t>14:30-16:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Barn, Unga, mellanstadiet och uppåt</t>
+          <t>Kista bibliotek</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>Barn, Unga, Från 12 år</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>children</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Bredängs bibliotek Testa vår Cricut Maker-maskin! Skär, klipp och skapa egna kort och märken! Passa på att göra något personligt och unikt. Vi bjuder på ett urval av material, men mängden är begränsad.</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/evenemang/prova-cricut-maker-1</t>
+          <t>Kista bibliotek Gillar du broderi, eller är du nyfiken på att lära dig? Kom och brodera din egen magnet med oss på ungdomsavdelningen! Allt material finns på plats. Drop in. Från 12 år.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/brodera-magneter-1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Julbio och   popcorn</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tisdag 23 december 2025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>15:00-17:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Rinkeby bibliotek</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Rinkeby bibliotek Vad kan vara mer mysigt under julen än att samlas, titta på film och snacksa ihop? Ingenting tycker vi och välkomnar därför er alla till bibliotekets julbio! Om ni inte sett och testat vår nya popcorn-maskin än så är det här den perfekta chansen. Filmen som ska visas passar främst barn från 6 år och upp. Kom i tid och ta bäst platser!</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/bio-och-popcorn-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Tisdagskul</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tisdag 23 december 2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tensta bibliotek</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Tensta bibliotek Varannan tisdag kan du komma till Tensta bibliotek för att skapa, upptäcka nya böcker och fika. Vi kommer att experimentera med olika material och väcka vår fantasi tillsammans. För dig 9-12 år.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/tisdagskul-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sagokistan</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tisdag 23 december 2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>15:30-15:45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kista bibliotek</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Barn, Alla åldrar, men böckerna riktar sig mot barn 3-6</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>children_and_all_ages</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Kista bibliotek Vilken bok finns i vår sagokista? Var med varje vardag innan jullovet när vi öppnar sagokistan och läser en vintrig saga tillsammans!</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/sagoluckan-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PUNKT127-tisdag</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Tisdag 23 december 2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Bredängs bibliotek</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Unga</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Unga</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Bredängs bibliotek Specialöppet för dig i högstadie- och gymnasieåldeåldern! Kom och få boktips, umgås, skapa, spela spel... Drop-in kl 17-19, ingen föranmälan behövs. Bibblan bjuder på fika.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/punkt127-tisdag-72</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>INSTÄLLT:   Advokatjour</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Tisdag 23 december 2025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>16:30-18:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Brommaplans bibliotek</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Vuxna</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>adults</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Brommaplans bibliotek Evenemanget är inställt Genom Advokatjouren får du prata med en advokat i cirka 15 minuter utan kostnad. Advokatjouren kan inte på den korta tiden upprätta handlingar eller vidta några direkta åtgärder, men du får tips om hur du kan gå vidare. Du får vara anonym om du behöver det. Alla advokater som deltar i verksamheten ställer upp på sin fritid och får ingen ersättning. Advokatjouren erbjuder personliga konsultationer på Brommaplans bibliotek. Evenemanget är inställt Inställt Inställt Inställt</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/advokatjour-318</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>INSTÄLLT: Boklek - Kom,   vinden!</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Onsdag 24 december 2025</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>2025-12-24</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>09:30-10:00</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Hässelby gårds bibliotek</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Barn, För förskolegrupper med barn 2-3 år</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>cancelled</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Hässelby gårds bibliotek Evenemanget är inställt Vi kommer att blåsas iväg tillsammans med vinden. Ett blåsigt äventyr för hela kroppen och alla våra sinnen.
 Vi utforskar Kom, vinden! av  Mimi Åkesson &amp; Linda Bondestam. Inställt Inställt Inställt Inställt Intresseanmälan skickas till Invänta bokningsbekräftelse. Varmt välkomna! Inställt</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>https://biblioteket.stockholm.se/evenemang/lek-en-bok-kom-vinden-16</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>INSTÄLLT: Förskolemorgon,   Drop-in</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Torsdag 25 december 2025</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>2025-12-25</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>09:30-10:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Hässelby gårds bibliotek</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Barn, Endast förskolegrupper och familjedaghem.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Hässelby gårds bibliotek Evenemanget är inställt Vi välkomnar förskolegrupper att låna och lämna böcker innan biblioteket har öppnat. Inställt Inställt Inställt Inställt Inställt Inställt</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-187</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>INSTÄLLT: Förskolemorgon,   Drop-in</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Torsdag 25 december 2025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>09:15-10:00</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Hagsätra bibliotek</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Barn</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>cancelled</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Hagsätra bibliotek Evenemanget är inställt Vi öppnar biblioteket extra för förskolor och familjedaghem innan vi öppnar för allmänheten. Välkomna att låna och lämna böcker och att läsa en stund tillsammans med din förskolegrupp. Bibliotekarier finns på plats för att hjälpa till med bokfrågor. 
 Onsdagar JÄMNA veckor kl 9.15-10.45, samt varje torsdag kl 9.15-10.00.  Knacka på fönstret så öppnar vi. 
 Självklart är ni även välkomna till biblioteket på våra ordinarie öppettider! Inställt Inställt Inställt</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-407</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>INSTÄLLT: Förskolemorgon,   Drop-in</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Torsdag 25 december 2025</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>09:30-10:30</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PUNKT – program för   unga</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tisdag 26 december  - onsdag 31 december 2025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Medborgarplatsen</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Unga, Ungdomar 13-19 år</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>teens</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Medborgarplatsen PUNKT är ett ungdomsbibliotek på Medborgarplatsen som riktar sig till dig 13-19 år. Vi finns en våning ovanför Tranströmerbiblioteket i Medborgarhuset (knapp 5 i hissen). Via länken nedan kommer du till alla PUNKTs evenemang:</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/punkt-program-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Papperspyssel Tema:   Nyår</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Lördag 27 december  - söndag 28 december 2025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan Skaparbordet i aktivitetsrummet är uppdukat med inspirerande material för pyssel på egen hand.
+För barnfamiljer.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/papperspyssel-tema-nyar-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Författarbesök: Malin   Haawind</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Lördag 27 december 2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Hässelby gårds bibliotek</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Barn, Endast förskolegrupper och familjedaghem.</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Vuxna</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>adults</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Hässelby gårds bibliotek Du behöver Välkommen till Hässelby Gårds bibliotek och ett författarsamtal med Malin Haawind om hennes böcker, skrivande med lite extra fokus på den nya romanen Samla liv – som utspelar sig på Nordiska museet.
+Författarbesöket är gratis.
+Drop-in, men för att säkra en plats ber vi dig att boka en plats nedan. Evenemanget är gratis, men du måste boka plats. Drop in-platser finns i mån av plats. Det finns 5 lediga platser .</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forfattarbesok-malin-haawind-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Helgpyssel på Stadsbiblioteket   Spelbomskan</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Lördag 27 december 2025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>11:00-15:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan På lördagar är Aktivitetsrummet öppet och bordet 
+är fullt med pysselmaterial. 
+Välkomna in och pyssla!</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/helgpyssel-pa-stadsbiblioteket-spelbomskan-69</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Familjelördag:   nyårspyssel</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Lördag 27 december 2025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Hässelby gårds bibliotek</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Hässelby gårds bibliotek Kom och pyssla ett nyårsdiadem!
+Mellan kl. 11 och kl. 12</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/familjelordag-nyarspyssel-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Familjelördag</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lördag 27 december 2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>11:00-15:00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Bredängs bibliotek</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Bredängs bibliotek Nu blir våra familjesöndagar till familjelördagar istället! 
+Kl 13.00 blir det sagostund eller minibio och det finns enklare pyssel framdukat. Biblioteket bjuder på fika.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/familjelordag-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Familjehelg</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lördag 27 december 2025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>11:00-16:00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek Varje lördag och söndag klockan 11 och 15 dukar vi fram en aktivitet som barn och vuxna kan göra tillsammans. Det kan bli allt från sagostund, pyssel eller kanske ett experiment. Ingen föranmälan behövs.</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/familjehelg-135</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Skrivträff -  för dig som brinner för att   skriva!</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Lördag 27 december 2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Unga, Barn</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek Tycker du att det är lättare att skriva än att prata? Brinner du för att skriva? Då kanske våra skrivträffar på bibblan är något för dig?
+Vi träffas för att fika, göra olika skrivövningar och prata om skrivande. 
+Vill du veta mer kan du mejla: agnes.almstrom@stockholm.se
+Ingen anmälan krävs.
+Välkommen!</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/skrivtraff-for-dig-som-brinner-for-att-skriva-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Skaparverkstad med   nyårstema</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Lördag 27 december 2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10:00-15:00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Skarpnäcks bibliotek</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Barn, från 3 år</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Skarpnäcks bibliotek Välkommen på skaparverkstad! Vi pysslar fyrverkeri-raketer av toarullar, göra partyhattar och målar färgexplosioner!</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/skaparverkstad-med-nyarstema-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Kalligrafiworkshop</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Söndag 28 december 2025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>14:00-15:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kungsholmens bibliotek Internationella biblioteket</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Barn, Unga, För barn från 8 år</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Kungsholmens bibliotek Internationella biblioteket Du behöver Välkommen till en kreativ prova-på-workshop i japansk kalligrafi. Under tillfället får du lära dig grunderna i denna traditionella teknik och skapa något eget att ta med hem.
+Vi får besök av speciella gäster från Japan som leder workshopen och delar med sig av sin kunskap och kultur.
+En rolig och inspirerande upplevelse där vi bjuder på fika. Workshopen är på engelska. Bokning gäller, drop-in i mån av plats. Evenemanget är gratis, men du måste boka plats. Det finns 11 lediga platser .</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/kalligrafiworkshop-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Familjesöndag på Östberga   bibliotek</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Söndag 28 december 2025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Östberga bibliotek</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Barn, Unga, Vuxna</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>children_and_adults</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Östberga bibliotek Välkommen till en härlig söndag för hela familjen på Östberga kulturhus! Varje söndag dukar vi fram en aktivitet som barn och vuxna kan göra tillsammans. Det kan bli allt från sagostund, pyssel eller en dansstund. Ingen föranmälan behövs.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/familjesondag-pa-ostberga-bibliotek-67</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sagolik Söndag special: Skapa din egen docka av   ull!</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Söndag 28 december 2025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>12:00-15:00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Luma bibliotek</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Barn, Från 7 år och uppåt.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Luma bibliotek Du behöver Vill du ge liv åt din egen kreativa fantasi? Kom och delta i vår spännande workshop med Mustafa Al Darwish där du får möjlighet att skapa din alldeles egen docka av mjuk och färgglad ull!  Varje barn får använda sin kreativitet för att designa och tillverka en docka. OBS! Platsbokningen gäller endast barn, medföljande vuxen ska inte boka plats. Evenemanget är gratis, men du måste boka plats. Det finns 5 lediga platser .</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/skapa-din-egen-docka-av-ull-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Familjehelg</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Söndag 28 december 2025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>11:00-16:00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek Varje lördag och söndag klockan 11 och 15 dukar vi fram en aktivitet som barn och vuxna kan göra tillsammans. Det kan bli allt från sagostund, pyssel eller kanske ett experiment. Ingen föranmälan behövs.</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/familjehelg-136</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Språkkafé på   engelska</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Måndag 29 december 2025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Vuxna</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>adults</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek Vill du öva engelska och lära känna nya vänner? Då är du varmt välkommen till vårt språkkafé på engelska! Vi träffas i grupprummet Romanen. A language cafe for those interested in practising English conversation and improving their English language skills. We meet in a meeting room called Romanen. Welcome!</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/sprakkafe-pa-engelska-84</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Förskolemorgon,   drop-in</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Måndag 29 december 2025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Telefonplans bibliotek</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Telefonplans bibliotek Varje måndag klockan 10.00-11.00 har vi extraöppet för förskolegrupper och familjedaghem. Då är det möjligt att låna och lämna böcker eller läsa en stund i lugn och ro. Ingen föranmälan behövs, bara knacka på dörren. Självklart är ni även välkomna att besöka oss under våra ordinarie öppettider. Telefonplans bibliotek är ett MERÖPPET bibliotek. Förskolor kan ansöka om MERÖPPET och då är biblioteket tillgängligt från klockan 8.00 på morgonen alla dagar utom onsdagar och torsdagar. Dessa dagar öppnar MERÖPPET först klockan 11 och istället erbjuds olika bokningsbara aktiviteter såsom sagostunder och visningar för 5-årsgrupper. Håll utkik på vår hemsida! Välkomna!</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-327</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Skapa snögubbar och stjärnor med Sofia och   Helena</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Måndag 29 december 2025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>10:00-15:00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Barn, Unga</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan Välkommen till Aktivitetsrummet och pyssla snögubbar och stjärnor. 
+Lämna din snögubbe (med dina kontaktuppgifter) till utställningen så kan du vinna ett fint pris i bibliotekets snögubbetävling!
+Från 4 år.</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/skapa-snogubbar-och-stjarnor-med-sofia-och-helena-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jullovsworkshop:   drömburkar!</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Måndag 29 december 2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>10:00-15:00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Unga, Barn, Vuxna</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>children_and_adults</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek Kom till bibliotekets jullovsworkshop där vi skapar drömburkar med allt vi önskar oss inför det nya året. Material finns på plats och alla är välkomna att vara med. Vi bjuder även på högläsning ur bilderböcker om drömmar. Ta gärna med en egen glasburk om du har, vi ser till att det finns några här på biblioteket också. Drop in!</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/jullovsworkshop-dromburkar-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>INSTÄLLT: Boklek - Kom,   vinden!</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Onsdag 31 december 2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>09:30-10:00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Hässelby gårds bibliotek</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Barn, För förskolegrupper med barn 2-3 år</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>cancelled</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Hässelby gårds bibliotek Evenemanget är inställt Vi välkomnar förskolegrupper att låna och lämna böcker innan biblioteket har öppnat. Inställt Inställt Inställt Inställt Inställt Inställt</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-187</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>PUNKT – program för   unga</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Tisdag 26 december  - onsdag 31 december 2025</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Medborgarplatsen</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Unga, Ungdomar 13-19 år</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>teens</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Medborgarplatsen PUNKT är ett ungdomsbibliotek på Medborgarplatsen som riktar sig till dig 13-19 år. Vi finns en våning ovanför Tranströmerbiblioteket i Medborgarhuset (knapp 5 i hissen). Via länken nedan kommer du till alla PUNKTs evenemang:</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/punkt-program-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Förskolemorgon,   drop-in</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Måndag 29 december 2025</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2025-12-29</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>10:00-11:00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Telefonplans bibliotek</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Barn</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>preschool_groups</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Telefonplans bibliotek Varje måndag klockan 10.00-11.00 har vi extraöppet för förskolegrupper och familjedaghem. Då är det möjligt att låna och lämna böcker eller läsa en stund i lugn och ro. Ingen föranmälan behövs, bara knacka på dörren. Självklart är ni även välkomna att besöka oss under våra ordinarie öppettider. Telefonplans bibliotek är ett MERÖPPET bibliotek. Förskolor kan ansöka om MERÖPPET och då är biblioteket tillgängligt från klockan 8.00 på morgonen alla dagar utom onsdagar och torsdagar. Dessa dagar öppnar MERÖPPET först klockan 11 och istället erbjuds olika bokningsbara aktiviteter såsom sagostunder och visningar för 5-årsgrupper. Håll utkik på vår hemsida! Välkomna!</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-327</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>INSTÄLLT: Boklek - Kom,   vinden!</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Onsdag 31 december 2025</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>09:30-10:00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Hässelby gårds bibliotek</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Barn, För förskolegrupper med barn 2-3 år</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>preschool_groups</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>cancelled</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Hässelby gårds bibliotek Evenemanget är inställt Vi kommer att blåsas iväg tillsammans med vinden. Ett blåsigt äventyr för hela kroppen och alla våra sinnen.
 Vi utforskar Kom, vinden! av  Mimi Åkesson &amp; Linda Bondestam. Inställt Inställt Inställt Inställt Intresseanmälan skickas till Invänta bokningsbekräftelse. Varmt välkomna! Inställt</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>https://biblioteket.stockholm.se/evenemang/lek-en-bok-kom-vinden-17</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>INSTÄLLT: Förskolemorgon,   Drop-in</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>Torsdag 1 januari 2026</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>2026-01-01</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>09:30-10:30</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Hässelby gårds bibliotek</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Barn, Endast förskolegrupper och familjedaghem.</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>cancelled</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>Hässelby gårds bibliotek Evenemanget är inställt Vi välkomnar förskolegrupper att låna och lämna böcker innan biblioteket har öppnat. Inställt Inställt Inställt Inställt Inställt Inställt</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-188</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>Förskolemorgon.   Drop-in!</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Måndag 5 januari 2026</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>2026-01-05</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Blackebergs bibliotek</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Barn, Förskolegrupper</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>Blackebergs bibliotek Vi öppnar biblioteket klockan 9 för förskolor. Välkomna att lämna tillbaka och låna böcker innan biblioteket öppnar för allmänheten.  Mejla gärna minst en vecka i förväg om ni vill att vi tar fram böcker kring ett särskilt tema: 
 blackeberg.ssb@stockholm.se.</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-702</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Förskolemorgon,   Drop-in</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sagoscenen är din:   Snödrottningen!</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Onsdag 7 januari 2026</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>2026-01-07</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>09:15-10:45</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Hagsätra bibliotek</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Barn</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>09:30-10:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Skärholmens bibliotek</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Barn, För åldern 3-6 år.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Hagsätra bibliotek Vi öppnar biblioteket extra för förskolor och familjedaghem innan vi öppnar för allmänheten. Välkomna att låna och lämna böcker och att läsa en stund tillsammans med din förskolegrupp. Bibliotekarier finns på plats för att hjälpa till med bokfrågor. Onsdagar JÄMNA veckor kl 9.15-10.45, samt varje torsdag kl 9.15-10.00. Knacka på fönstret så öppnar vi. Självklart är ni även välkomna till biblioteket på våra ordinarie öppettider!</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-666</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Förskolemorgon –   drop-in</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Onsdag 7 januari 2026</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2026-01-07</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>09:00-10:00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Farsta bibliotek</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Barn</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>preschool_groups</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Farsta bibliotek Passa på att besöka biblioteket innan öppning! Varje onsdags- och torsdagsmorgon kan ni komma med förskolegrupper och låna, lämna och kanske läsa en stund i lugn och ro innan biblioteket öppnar för allmänheten. Ingen föranmälan behövs, ring på klockan utanför dörren så öppnar vi. Välkomna!</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-473</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Förskolemorgon-   Drop-in!</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Onsdag 7 januari 2026</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2026-01-07</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>09:00-10:00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Stadsbiblioteket Spelbomskan</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Barn</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>preschool_groups</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Stadsbiblioteket Spelbomskan Extraöppet för förskolor och familjedaghem. Måndagar, onsdagar, torsdagar och fredagar klockan 9-10 har vi särskilt öppet för er. Då kan ni låna och lämna tillbaka böcker eller läsa en stund i lugn och ro. Det går bra att komma senare än kl. 9. Drop in! Ingång Odengatan 59. Ring 08-508 31 105, så kommer vi och öppnar.</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-521</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Förskolemorgon,   Drop-in</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Onsdag 7 januari 2026</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2026-01-07</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>09:00-10:00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Vällingby bibliotek</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Barn</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>preschool_groups</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Vällingby bibliotek Vi öppnar biblioteket tidigare för förskolor. Då är det möjligt att lämna tillbaka och låna böcker innan biblioteket öppnar för allmänheten. Självklart är ni även välkomna att besöka oss under våra ordinarie öppettider också. Mejla gärna minst en vecka i förväg om ni vill att vi tar fram böcker kring ett särskilt tema: vallingby.ssb@stockholm.se</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-616</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Sagoscenen är din:   Snödrottningen!</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Onsdag 7 januari 2026</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2026-01-07</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>09:30-10:30</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Skärholmens bibliotek</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Barn, För åldern 3-6 år.</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>preschool_groups</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>Skärholmens bibliotek Du behöver Vi utgår från den klassiska sagan om "Snödrottningen" och berättar den på ett nytt sätt med hjälp av improvisationsteater och skapande.
 Programmet rekommenderas för åldern 3-6 år. 
 Fyll i formuläret här nedanför för att boka plats till aktiviteten. Evenemanget är gratis, men du måste boka plats. Det finns 20 lediga platser . Ni får en bekräftelse skickad till er e-postadress. Antalet pedagoger räknas utöver detta i bokningen. Om ni inte kan komma var vänlig avboka så att andra förskolegrupper har möjlighet att komma istället. om ni har några frågor: 08-508 30 570.</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>https://biblioteket.stockholm.se/evenemang/sagoscenen-ar-din-snodrottningen-pa-forskolan-1</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>INSTÄLLT: Boklek - Kom,   vinden!</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Onsdag 7 januari 2026</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>2026-01-07</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>09:30-10:00</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Hässelby gårds bibliotek</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Barn, För förskolegrupper med barn 2-3 år</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>cancelled</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Hässelby gårds bibliotek Evenemanget är inställt Vi kommer att blåsas iväg tillsammans med vinden. Ett blåsigt äventyr för hela kroppen och alla våra sinnen.
 Vi utforskar Kom, vinden! av  Mimi Åkesson &amp; Linda Bondestam. Inställt Inställt Inställt Inställt Intresseanmälan skickas till Invänta bokningsbekräftelse. Varmt välkomna! Inställt</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>https://biblioteket.stockholm.se/evenemang/lek-en-bok-kom-vinden-18</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Förskolemorgon,   Drop-in</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Onsdag 7 januari 2026</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>09:15-10:45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Hagsätra bibliotek</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Hagsätra bibliotek Vi öppnar biblioteket extra för förskolor och familjedaghem innan vi öppnar för allmänheten. Välkomna att låna och lämna böcker och att läsa en stund tillsammans med din förskolegrupp. Bibliotekarier finns på plats för att hjälpa till med bokfrågor. Onsdagar JÄMNA veckor kl 9.15-10.45, samt varje torsdag kl 9.15-10.00. Knacka på fönstret så öppnar vi. Självklart är ni även välkomna till biblioteket på våra ordinarie öppettider!</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-666</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Förskolemorgon,   Drop-in</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Onsdag 7 januari 2026</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Vällingby bibliotek</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Vällingby bibliotek Vi öppnar biblioteket tidigare för förskolor. Då är det möjligt att lämna tillbaka och låna böcker innan biblioteket öppnar för allmänheten. Självklart är ni även välkomna att besöka oss under våra ordinarie öppettider också. Mejla gärna minst en vecka i förväg om ni vill att vi tar fram böcker kring ett särskilt tema: vallingby.ssb@stockholm.se</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-616</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Förskolemorgon-   Drop-in!</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Onsdag 7 januari 2026</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan Extraöppet för förskolor och familjedaghem. Måndagar, onsdagar, torsdagar och fredagar klockan 9-10 har vi särskilt öppet för er. Då kan ni låna och lämna tillbaka böcker eller läsa en stund i lugn och ro. Det går bra att komma senare än kl. 9. Drop in! Ingång Odengatan 59. Ring 08-508 31 105, så kommer vi och öppnar.</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-521</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Förskolemorgon –   drop-in</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Onsdag 7 januari 2026</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek Passa på att besöka biblioteket innan öppning! Varje onsdags- och torsdagsmorgon kan ni komma med förskolegrupper och låna, lämna och kanske läsa en stund i lugn och ro innan biblioteket öppnar för allmänheten. Ingen föranmälan behövs, ring på klockan utanför dörren så öppnar vi. Välkomna!</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-473</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>INSTÄLLT: Förskolemorgon,   Drop-in</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Torsdag 8 januari 2026</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>2026-01-08</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>09:30-10:30</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Hässelby gårds bibliotek</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Barn, Endast förskolegrupper och familjedaghem.</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>cancelled</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>Hässelby gårds bibliotek Evenemanget är inställt Vi välkomnar förskolegrupper att låna och lämna böcker innan biblioteket har öppnat. Inställt Inställt Inställt Inställt Inställt Inställt</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-189</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Förskolemorgon –   drop-in</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Låna och lämna:   drop-in!</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Torsdag 8 januari 2026</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>2026-01-08</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>09:00-10:00</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Farsta bibliotek</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>09:30-10:00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kungsholmens bibliotek Internationella biblioteket</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>Barn</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Farsta bibliotek Passa på att besöka biblioteket innan öppning! Varje onsdags- och torsdagsmorgon kan ni komma med förskolegrupper och låna, lämna och kanske läsa en stund i lugn och ro innan biblioteket öppnar för allmänheten. Ingen föranmälan behövs, ring på klockan utanför dörren så öppnar vi. Välkomna!</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-474</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Förskolemorgon-   Drop-in!</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Kungsholmens bibliotek Internationella biblioteket Vi öppnar biblioteket tidigare för förskolor. Då är det möjligt att lämna tillbaka och låna böcker innan biblioteket öppnar för allmänheten. Självklart är ni även välkomna att besöka oss under våra ordinarie öppettider också. Ingen bokning krävs. Bibliotekarie finns på plats och vägleder vid behov. Varmt välkommen!</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/lana-och-lamna-drop-in-76</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Förskolemorgon,   Drop-in</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Torsdag 8 januari 2026</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>2026-01-08</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>09:00-10:00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Stadsbiblioteket Spelbomskan</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>09:15-10:00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Hagsätra bibliotek</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>Barn</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Stadsbiblioteket Spelbomskan Extraöppet för förskolor och familjedaghem. Måndagar, onsdagar, torsdagar och fredagar klockan 9-10 har vi särskilt öppet för er. Då kan ni låna och lämna tillbaka böcker eller läsa en stund i lugn och ro. Det går bra att komma senare än kl. 9. Drop in! Ingång Odengatan 59. Ring 08-508 31 105, så kommer vi och öppnar.</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-522</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Förskolemorgon,   Drop-in</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Hagsätra bibliotek Vi öppnar biblioteket extra för förskolor och familjedaghem innan vi öppnar för allmänheten. Välkomna att låna och lämna böcker och att läsa en stund tillsammans med din förskolegrupp. Bibliotekarier finns på plats för att hjälpa till med bokfrågor. Onsdagar JÄMNA veckor kl 9.15-10.45, samt varje torsdag kl 9.15-10.00. Knacka på fönstret så öppnar vi. Självklart är ni även välkomna till biblioteket på våra ordinarie öppettider!</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-678</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Förskolemorgon.   Drop-in!</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Torsdag 8 januari 2026</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>2026-01-08</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>09:00-10:00</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Vällingby bibliotek</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Barn</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Blackebergs bibliotek</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Barn, Förskolegrupper</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Vällingby bibliotek Vi öppnar biblioteket tidigare för förskolor. Då är det möjligt att lämna tillbaka och låna böcker innan biblioteket öppnar för allmänheten. Självklart är ni även välkomna att besöka oss under våra ordinarie öppettider också. Mejla gärna minst en vecka i förväg om ni vill att vi tar fram böcker kring ett särskilt tema: vallingby.ssb@stockholm.se</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-617</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Förskolemorgon.   Drop-in!</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Torsdag 8 januari 2026</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Blackebergs bibliotek</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Barn, Förskolegrupper</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>preschool_groups</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>Blackebergs bibliotek Vi öppnar biblioteket klockan 9 för förskolor. Välkomna att lämna tillbaka och låna böcker innan biblioteket öppnar för allmänheten.  Mejla gärna minst en vecka i förväg om ni vill att vi tar fram böcker kring ett särskilt tema: 
 blackeberg.ssb@stockholm.se.</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-727</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>Förskolemorgon,   Drop-in</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Torsdag 8 januari 2026</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>2026-01-08</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>09:15-10:00</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Hagsätra bibliotek</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Vällingby bibliotek</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>Barn</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Hagsätra bibliotek Vi öppnar biblioteket extra för förskolor och familjedaghem innan vi öppnar för allmänheten. Välkomna att låna och lämna böcker och att läsa en stund tillsammans med din förskolegrupp. Bibliotekarier finns på plats för att hjälpa till med bokfrågor. Onsdagar JÄMNA veckor kl 9.15-10.45, samt varje torsdag kl 9.15-10.00. Knacka på fönstret så öppnar vi. Självklart är ni även välkomna till biblioteket på våra ordinarie öppettider!</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-678</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Låna och lämna:   drop-in!</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Vällingby bibliotek Vi öppnar biblioteket tidigare för förskolor. Då är det möjligt att lämna tillbaka och låna böcker innan biblioteket öppnar för allmänheten. Självklart är ni även välkomna att besöka oss under våra ordinarie öppettider också. Mejla gärna minst en vecka i förväg om ni vill att vi tar fram böcker kring ett särskilt tema: vallingby.ssb@stockholm.se</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-617</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Förskolemorgon-   Drop-in!</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Torsdag 8 januari 2026</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>2026-01-08</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan Extraöppet för förskolor och familjedaghem. Måndagar, onsdagar, torsdagar och fredagar klockan 9-10 har vi särskilt öppet för er. Då kan ni låna och lämna tillbaka böcker eller läsa en stund i lugn och ro. Det går bra att komma senare än kl. 9. Drop in! Ingång Odengatan 59. Ring 08-508 31 105, så kommer vi och öppnar.</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-522</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Förskolemorgon –   drop-in</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Torsdag 8 januari 2026</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek Passa på att besöka biblioteket innan öppning! Varje onsdags- och torsdagsmorgon kan ni komma med förskolegrupper och låna, lämna och kanske läsa en stund i lugn och ro innan biblioteket öppnar för allmänheten. Ingen föranmälan behövs, ring på klockan utanför dörren så öppnar vi. Välkomna!</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-474</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sagostund: Bra jobbat, mamma   pingvin</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Fredag 9 januari 2026</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>09:30-10:00</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Kungsholmens bibliotek Internationella biblioteket</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Barn</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Kungsholmens bibliotek Internationella biblioteket Vi öppnar biblioteket tidigare för förskolor. Då är det möjligt att lämna tillbaka och låna böcker innan biblioteket öppnar för allmänheten. Självklart är ni även välkomna att besöka oss under våra ordinarie öppettider också. Ingen bokning krävs. Bibliotekarie finns på plats och vägleder vid behov. Varmt välkommen!</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/lana-och-lamna-drop-in-76</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Kungsholmens bibliotek Internationella biblioteket Bokningen öppnar måndag 29 december 2025 09:00 Varmt välkommen på sagostund för de yngsta barnen 2-3 år. Vi läser "Bra jobbat, mamma pingvin" av Chris Haughton. Evenemanget är gratis, men du måste boka plats. Bokningen öppnar måndag 29 december 2025 09:00 Om ni inte kan komma var vänlig avboka så att andra förskolegrupper har möjlighet att komma istället. Vänligen boka endast 1 tillfälle per avdelning, så att alla kan få plats. Kontakta oss på Kungsholmens bibliotek Internationella biblioteket om ni har några frågor:</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/sagostund-bra-jobbat-mamma-pingvin-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>Förskolemorgon-   Drop-in!</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Fredag 9 januari 2026</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>2026-01-09</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>09:00-10:00</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>Stadsbiblioteket Spelbomskan</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>Barn</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>Stadsbiblioteket Spelbomskan Extraöppet för förskolor och familjedaghem. Måndagar, onsdagar, torsdagar och fredagar klockan 9-10 har vi särskilt öppet för er. Då kan ni låna och lämna tillbaka böcker eller läsa en stund i lugn och ro. Det går bra att komma senare än kl. 9. Drop in! Ingång Odengatan 59. Ring 08-508 31 105, så kommer vi och öppnar.</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-523</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>Sagostund: Bra jobbat, mamma   pingvin</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Fredag 9 januari 2026</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>09:30-10:00</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Måndag 12 januari 2026</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>10:15-10:45</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
         <is>
           <t>Kungsholmens bibliotek Internationella biblioteket</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>Barn</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Kungsholmens bibliotek Internationella biblioteket Bokningen öppnar måndag 29 december 2025 09:00 Varmt välkommen på sagostund för de yngsta barnen 2-3 år. Vi läser "Bra jobbat, mamma pingvin" av Chris Haughton. Evenemanget är gratis, men du måste boka plats. Bokningen öppnar måndag 29 december 2025 09:00 Om ni inte kan komma var vänlig avboka så att andra förskolegrupper har möjlighet att komma istället. Vänligen boka endast 1 tillfälle per avdelning, så att alla kan få plats. Kontakta oss på Kungsholmens bibliotek Internationella biblioteket om ni har några frågor:</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/sagostund-bra-jobbat-mamma-pingvin-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Sagostund: Bra jobbat, mamma   pingvin</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Måndag 12 januari 2026</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>10:15-10:45</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Kungsholmens bibliotek Internationella biblioteket</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Barn</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>preschool_groups</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>Kungsholmens bibliotek Internationella biblioteket Varmt välkomna på vår "Drop in" sagostund för de yngsta barnen 2–3 år! Vi läser "Bra jobbat, mamma pingvin" av Chris Haughton.
 Ingen föranmälan behövs! Om ni inte kan komma var vänlig avboka så att andra förskolegrupper har möjlighet att komma istället. Vänligen boka endast 1 tillfälle per avdelning, så att alla kan få plats. Kontakta oss på Kungsholmens bibliotek Internationella biblioteket om ni har några frågor:</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>https://biblioteket.stockholm.se/evenemang/sagostund-bra-jobbat-mamma-pingvin-2</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Förskolemorgon-   Drop-in!</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Förskolemorgon på Stora Essingens   bibliotek</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Måndag 12 januari 2026</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>2026-01-12</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>09:00-10:00</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Stadsbiblioteket Spelbomskan</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Stora Essingens bibliotek</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>Barn</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Stadsbiblioteket Spelbomskan Extraöppet för förskolor och familjedaghem. Måndagar, onsdagar, torsdagar och fredagar klockan 9-10 har vi särskilt öppet för er. Då kan ni låna och lämna tillbaka böcker eller läsa en stund i lugn och ro. Det går bra att komma senare än kl. 9. Drop in! Ingång Odengatan 59. Ring 08-508 31 105, så kommer vi och öppnar.</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-524</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Stora Essingens bibliotek Bokningen öppnar måndag 5 januari 2026 00:00 På måndagsmorgnar har biblioteket specialöppet för förskolor och familjedaghem. En möjlighet att låna och lämna och läsa en stund i lugn och ro innan biblioteket öppnar för allmänheten. Välkomna! Evenemanget är gratis, men du måste boka plats. Bokningen öppnar måndag 5 januari 2026 00:00</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-pa-stora-essingens-bibliotek-100</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Låna och lämna:   drop-in!</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Måndag 12 januari 2026</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>09:30-10:00</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kungsholmens bibliotek Internationella biblioteket</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Kungsholmens bibliotek Internationella biblioteket Vi öppnar biblioteket tidigare för förskolor. Då är det möjligt att lämna tillbaka och låna böcker innan biblioteket öppnar för allmänheten. Självklart är ni även välkomna att besöka oss under våra ordinarie öppettider också. Ingen bokning krävs. Bibliotekarie finns på plats och vägleder vid behov. Varmt välkommen!</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/lana-och-lamna-drop-in-77</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Förskolemorgon:   Drop-in!</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Måndag 12 januari 2026</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>09:15-10:00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Norra Djurgårdsstadens bibliotek</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Norra Djurgårdsstadens bibliotek Välkommen på drop-in! Förskolor är välkomna att låna och lämna böcker i lugn och ro innan öppning. Bibliotekarie finns på plats!</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-751</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>Förskolemorgon: Drop   in!</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Måndag 12 januari 2026</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>2026-01-12</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>09:15-10:00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t>Östermalms bibliotek, Fältöversten</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>Barn, För förskolegrupper</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>Östermalms bibliotek, Fältöversten Måndagar kl. 9.15-10 har vi öppet för er förskolor innan vi öppnar för allmänheten. Bibliotekarie finns på plats för boktips och vägledning. Det är också fritt fram att besöka vår härliga ateljé. Ring på klockan vid entrén så öppnar vi!</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-770</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>Förskolemorgon.   Drop-in!</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Måndag 12 januari 2026</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>2026-01-12</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>Blackebergs bibliotek</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>Barn, Förskolegrupper</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>Blackebergs bibliotek Vi öppnar biblioteket klockan 9 för förskolor. Välkomna att lämna tillbaka och låna böcker innan biblioteket öppnar för allmänheten.  Mejla gärna minst en vecka i förväg om ni vill att vi tar fram böcker kring ett särskilt tema: 
 blackeberg.ssb@stockholm.se.</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-703</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Förskolemorgon:   Drop-in!</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Förskolemorgon-   Drop-in!</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>Måndag 12 januari 2026</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>2026-01-12</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan Extraöppet för förskolor och familjedaghem. Måndagar, onsdagar, torsdagar och fredagar klockan 9-10 har vi särskilt öppet för er. Då kan ni låna och lämna tillbaka böcker eller läsa en stund i lugn och ro. Det går bra att komma senare än kl. 9. Drop in! Ingång Odengatan 59. Ring 08-508 31 105, så kommer vi och öppnar.</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-524</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Upptäck   biblioteket!</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Onsdag 14 januari 2026</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Tranströmerbiblioteket</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Tranströmerbiblioteket Du behöver Välkommen på sagostund och därefter en guidad visning av biblioteket! 
+Varför heter biblioteket Tranströmerbiblioteket? Varför finns det så mycket böcker av Astrid Lindgren på olika språk? Var hittar jag en faktabok om djur? Vad betyder märkningen på böckerna? Hur återlämnar jag böcker? Finns det en vuxenavdelning? Kostar det att gå på toaletten? Det och mycket mer får barnen lära sig på visningen! 
+Men vi börjar med en mysig sagostund! Evenemanget är gratis, men du måste boka plats. Drop in-platser finns i mån av plats. Det finns 15 lediga platser . Vi träffas vid bibliotekets entré på våning 4. Om ni får förhinder eller har frågor kan ni maila till: kristina.em.andersson@stockholm.se eller ringa 070-508 31138</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/upptack-biblioteket-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Sagostund för   förskolor</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Onsdag 14 januari 2026</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Högdalens bibliotek</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Högdalens bibliotek Du behöver Välkomna till biblioteket med er förskolegrupp! En bibliotekarie läser en saga för era förskolebarn i vårt fina sagorum. Ni behöver boka plats, 1 bokning = 1 förskolegrupp. Max antal barn per grupp: 8 stycken. Bokningen gäller för klockan 10:00, men om ni vill komma tidigare kan ni kontakta oss! Evenemanget är gratis, men du måste boka plats. Det finns 1 ledig plats .</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/sagostund-for-forskolor-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Kreativ sagostund:   vinter!</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Onsdag 14 januari 2026</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>09:30-10:15</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Skärholmens bibliotek</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Barn, För åldern 3-6 år</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Skärholmens bibliotek Du behöver Välkommen på en kreativ sagostund på onsdagen 14 januari kl.9.30! Vi läser en bilderbok och skapar med vintertema.
+Programmet rekommenderas för åldern 3-6 år.
+Boka plats till aktiviteten genom att fylla i formuläret här nedanför. Evenemanget är gratis, men du måste boka plats. Det finns 18 lediga platser . Ni får en bekräftelse skickad till er e-postadress. Antalet pedagoger räknas utöver detta i bokningen. Om ni inte kan komma var vänlig avboka så att andra förskolegrupper har möjlighet att komma istället. om ni har några frågor: 08-508 30 570.</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/kreativ-sagostund-vinter-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Förskolemorgon med   Högläsning</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Onsdag 14 januari 2026</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>09:30-10:30</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Hagsätra bibliotek</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Hagsätra bibliotek Bokningen öppnar onsdag 7 januari 2026 08:00 Välkomna till Hagsätra bibliotek för en högläsningsstund och egen tid på biblioteket! Vi ramsar, läser en eller flera böcker och bokpratar tillsammans. Efter högläsningen har ni biblioteket för er själva och kan läsa och få hjälp att leta efter böcker i lugn och ro. Högläsningen vänder sig till barn 3-6 år och förskolan avgör själva hur många barn ni tycker passar för aktiviteten. 
+I första hand ett tillfälle per avdelning och termin. Evenemanget är gratis, men du måste boka plats. Bokningen öppnar onsdag 7 januari 2026 08:00</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-med-hogslasning-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Sagostund för   förskolor.</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Onsdag 14 januari 2026</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>09:30-10:30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Blackebergs bibliotek</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Barn, Förskolegrupper</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Blackebergs bibliotek Välkommen att boka en sagostund med din förskolegrupp på Blackebergs bibliotek.
+Bokningar sker genom att mejla önskemål om en tid till eva.ohgren@stockholm.se.</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/sagostund-for-forskolor-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Förskolemorgon: Drop   in!</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Onsdag 14 januari 2026</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>09:15-10:00</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Norra Djurgårdsstadens bibliotek</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Östermalms bibliotek, Fältöversten</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Barn, För förskolegrupper</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Östermalms bibliotek, Fältöversten Under januari månad har vi drop in-tider även på onsdagar och torsdagar kl. 9.15-10. Bibliotekarie finns på plats för boktips och vägledning. Det är också fritt fram att besöka vår härliga ateljé. Ring på klockan vi entrén så kommer vi och öppnar! I januari månad förbereder vi oss för vårt nya bibliotekssystem som implementeras i mitten av februari. Det betyder att vårterminens program drar igång lite senare än vanligt denna termin MEN vi har istället utökade drop in-tider denna tid.</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-792</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Förskolemorgon,   Drop-in</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Onsdag 14 januari 2026</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Vällingby bibliotek</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>Barn</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Norra Djurgårdsstadens bibliotek Välkommen på drop-in! Förskolor är välkomna att låna och lämna böcker i lugn och ro innan öppning. Bibliotekarie finns på plats!</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-751</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Förskolemorgon på Stora Essingens   bibliotek</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Måndag 12 januari 2026</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>10:00-11:00</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Stora Essingens bibliotek</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Vällingby bibliotek Vi öppnar biblioteket tidigare för förskolor. Då är det möjligt att lämna tillbaka och låna böcker innan biblioteket öppnar för allmänheten. Självklart är ni även välkomna att besöka oss under våra ordinarie öppettider också. Mejla gärna minst en vecka i förväg om ni vill att vi tar fram böcker kring ett särskilt tema: vallingby.ssb@stockholm.se</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-618</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Förskolemorgon-   Drop-in!</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Onsdag 14 januari 2026</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>Barn</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Stora Essingens bibliotek Bokningen öppnar måndag 5 januari 2026 00:00 På måndagsmorgnar har biblioteket specialöppet för förskolor och familjedaghem. En möjlighet att låna och lämna och läsa en stund i lugn och ro innan biblioteket öppnar för allmänheten. Välkomna! Evenemanget är gratis, men du måste boka plats. Bokningen öppnar måndag 5 januari 2026 00:00</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-pa-stora-essingens-bibliotek-100</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan Extraöppet för förskolor och familjedaghem. Måndagar, onsdagar, torsdagar och fredagar klockan 9-10 har vi särskilt öppet för er. Då kan ni låna och lämna tillbaka böcker eller läsa en stund i lugn och ro. Det går bra att komma senare än kl. 9. Drop in! Ingång Odengatan 59. Ring 08-508 31 105, så kommer vi och öppnar.</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-525</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Förskolemorgon –   drop-in</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Onsdag 14 januari 2026</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek Passa på att besöka biblioteket innan öppning! Varje onsdags- och torsdagsmorgon kan ni komma med förskolegrupper och låna, lämna och kanske läsa en stund i lugn och ro innan biblioteket öppnar för allmänheten. Ingen föranmälan behövs, ring på klockan utanför dörren så öppnar vi. Välkomna!</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-475</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>INSTÄLLT: Förskolemorgon,   Drop-in</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Torsdag 15 januari 2026</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>09:30-10:30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Hässelby gårds bibliotek</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Barn, Endast förskolegrupper och familjedaghem.</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Hässelby gårds bibliotek Evenemanget är inställt Vi välkomnar förskolegrupper att låna och lämna böcker innan biblioteket har öppnat. Inställt Inställt Inställt Inställt Inställt Inställt</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-190</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>Låna och lämna:   drop-in!</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Måndag 12 januari 2026</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Torsdag 15 januari 2026</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>09:30-10:00</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>Kungsholmens bibliotek Internationella biblioteket</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>Barn</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>Kungsholmens bibliotek Internationella biblioteket Vi öppnar biblioteket tidigare för förskolor. Då är det möjligt att lämna tillbaka och låna böcker innan biblioteket öppnar för allmänheten. Självklart är ni även välkomna att besöka oss under våra ordinarie öppettider också. Ingen bokning krävs. Bibliotekarie finns på plats och vägleder vid behov. Varmt välkommen!</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/lana-och-lamna-drop-in-77</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/lana-och-lamna-drop-in-78</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Förskolemorgon – dramatiserad saga om   Gruffalon</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Torsdag 15 januari 2026</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>09:30-10:00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Barn, 3-6 år. Bokning av 1 plats gäller för 1 barngrupp.</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Farsta bibliotek Fullbokat Med hjälp av handdockor och gosedjur berättar vi sagan om "Gruffalon".
+Efter sagan får barnen hälsa på djuren! Evenemanget är gratis, men du måste boka plats. Evenemanget är fullbokat. Om vi får återbud öppnas bokningen igen Fullbokat</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-dramatiserad-saga-om-gruffalon-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Förskolemorgon: Drop   in!</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Torsdag 15 januari 2026</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>09:15-10:00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Östermalms bibliotek, Fältöversten</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Barn, För förskolegrupper</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Östermalms bibliotek, Fältöversten Under januari månad har vi drop in-tider även på onsdagar och torsdagar kl. 9.15-10. Bibliotekarie finns på plats för boktips och vägledning. Det är också fritt fram att besöka vår härliga ateljé. Ring på klockan vi entrén så kommer vi och öppnar! I januari månad förbereder vi oss för vårt nya bibliotekssystem som implementeras i mitten av februari. Det betyder att vårterminens program drar igång lite senare än vanligt denna termin MEN vi har istället utökade drop in-tider denna tid.</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-793</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Förskolemorgon,   Drop-in</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Torsdag 15 januari 2026</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>09:15-10:00</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Hagsätra bibliotek</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Hagsätra bibliotek Vi öppnar biblioteket extra för förskolor och familjedaghem innan vi öppnar för allmänheten. Välkomna att låna och lämna böcker och att läsa en stund tillsammans med din förskolegrupp. Bibliotekarier finns på plats för att hjälpa till med bokfrågor. Onsdagar JÄMNA veckor kl 9.15-10.45, samt varje torsdag kl 9.15-10.00. Knacka på fönstret så öppnar vi. Självklart är ni även välkomna till biblioteket på våra ordinarie öppettider!</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-679</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Förskolemorgon.   Drop-in!</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Torsdag 15 januari 2026</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Blackebergs bibliotek</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Barn, Förskolegrupper</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Blackebergs bibliotek Vi öppnar biblioteket klockan 9 för förskolor. Välkomna att lämna tillbaka och låna böcker innan biblioteket öppnar för allmänheten.  Mejla gärna minst en vecka i förväg om ni vill att vi tar fram böcker kring ett särskilt tema: 
+blackeberg.ssb@stockholm.se.</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-728</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Förskolemorgon,   Drop-in</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Torsdag 15 januari 2026</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Vällingby bibliotek</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Vällingby bibliotek Vi öppnar biblioteket tidigare för förskolor. Då är det möjligt att lämna tillbaka och låna böcker innan biblioteket öppnar för allmänheten. Självklart är ni även välkomna att besöka oss under våra ordinarie öppettider också. Mejla gärna minst en vecka i förväg om ni vill att vi tar fram böcker kring ett särskilt tema: vallingby.ssb@stockholm.se</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-619</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Förskolemorgon-   Drop-in!</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Torsdag 15 januari 2026</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan Extraöppet för förskolor och familjedaghem. Måndagar, onsdagar, torsdagar och fredagar klockan 9-10 har vi särskilt öppet för er. Då kan ni låna och lämna tillbaka böcker eller läsa en stund i lugn och ro. Det går bra att komma senare än kl. 9. Drop in! Ingång Odengatan 59. Ring 08-508 31 105, så kommer vi och öppnar.</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-526</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>Förskolemorgon –   drop-in</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Onsdag 14 januari 2026</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Torsdag 15 januari 2026</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>09:00-10:00</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Farsta bibliotek</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>Barn</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>preschool_groups</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>Farsta bibliotek Passa på att besöka biblioteket innan öppning! Varje onsdags- och torsdagsmorgon kan ni komma med förskolegrupper och låna, lämna och kanske läsa en stund i lugn och ro innan biblioteket öppnar för allmänheten. Ingen föranmälan behövs, ring på klockan utanför dörren så öppnar vi. Välkomna!</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-475</t>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-476</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Förskoleöppet på   biblioteket</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Torsdag 15 januari 2026</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Högdalens bibliotek</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Högdalens bibliotek Förskoleöppet på biblioteket är ett tillfälle för förskolor att besöka biblioteket innan vi öppnar för allmänheten. Drop-in, inga bokningar. För att bli insläppta, ring: 08-508 307 60. Varmt välkomna!</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskoleoppet-pa-biblioteket-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Förskolemorgon: Drop   in!</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Fredag 16 januari 2026</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>09:15-10:00</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Östermalms bibliotek, Fältöversten</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Barn, För förskolegrupper</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Östermalms bibliotek, Fältöversten Fredagar kl. 9.15-10 har vi öppet för er förskolor innan vi öppnar för allmänheten. Bibliotekarie finns på plats för boktips och vägledning. Det är också fritt fram att besöka vår härliga ateljé. Ring på klockan vid entrén så öppnar vi!</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-798</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Förskolemorgon-   Drop-in!</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Fredag 16 januari 2026</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>preschool_groups</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Stadsbiblioteket Spelbomskan Extraöppet för förskolor och familjedaghem. Måndagar, onsdagar, torsdagar och fredagar klockan 9-10 har vi särskilt öppet för er. Då kan ni låna och lämna tillbaka böcker eller läsa en stund i lugn och ro. Det går bra att komma senare än kl. 9. Drop in! Ingång Odengatan 59. Ring 08-508 31 105, så kommer vi och öppnar.</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>https://biblioteket.stockholm.se/evenemang/forskolemorgon-drop-in-527</t>
         </is>
       </c>
     </row>

--- a/event_category/events.xlsx
+++ b/event_category/events.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,3426 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 3–6 år</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Barn 3-6 år</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Drop-in i Verkstan</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>I Verkstan, plan 2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Barn i alla åldrar</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>all_ages, children</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Skapar porträtt och låtsas-jag med färg och fantasi</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Barn 7 år och upp</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Barn 7 år och upp</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Guidad visning av utställningen Sena Picasso</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ännu en morgon</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Guidad visning av utställningen Ännu en morgon</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15 minuter konst</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Samlingen, plan 4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>15-minuters visning av ett verk från Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 3–6 år</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Barn 3-6 år</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15 minuter konst</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Samlingen, plan 4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>15-minuters visning av ett verk från Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Drop-in i Verkstan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I Verkstan, plan 2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Barn i alla åldrar</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>all_ages, children</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Skapar porträtt och låtsas-jag med färg och fantasi</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Barn 7 år och upp</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Guidad visning av utställningen Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Barn 7 år och upp</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rauschenberg 100 år</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Visningsmagasinet, plan 2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Guidad visning av utställningen Rauschenberg 100 år</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 3–6 år</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Barn 3-6 år</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>15 minuter konst</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Samlingen, plan 4</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>15-minuters visning av ett verk från Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Drop-in i Verkstan</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I Verkstan, plan 2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Barn i alla åldrar</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>all_ages, children</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Skapar porträtt och låtsas-jag med färg och fantasi</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Barn 7 år och upp</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Guidad visning av Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Barn 7 år och upp</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Guidad visning av utställningen Sena Picasso</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 3–6 år</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Barn 3-6 år</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Drop-in i Verkstan</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>I Verkstan, plan 2</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Barn i alla åldrar</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>all_ages, children</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Skapar porträtt och låtsas-jag med färg och fantasi</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Barn 7 år och upp</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Barn 7 år och upp</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Guidad visning av Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Guidad visning av utställningen Sena Picasso</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Fri fredag kl 18–20</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Fri entré till museet och guidad visning</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 3–6 år</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Barn 3-6 år</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Drop-in i Verkstan</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>I Verkstan, plan 2</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Barn i alla åldrar</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>all_ages, children</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Skapar porträtt och låtsas-jag med färg och fantasi</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Barn 7 år och upp</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Barn 7 år och upp</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Guidad visning av utställningen Sena Picasso</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Guidad visning av utställningen Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>15 minuter konst</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Samlingen, plan 4</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>15-minuters visning av ett verk från Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 3–6 år</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Barn 3-6 år</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>15 minuter konst</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Samlingen, plan 4</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>15-minuters visning av ett verk från Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Drop-in i Verkstan</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>I Verkstan, plan 2</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Barn i alla åldrar</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>all_ages, children</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Skapar porträtt och låtsas-jag med färg och fantasi</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Barn 7 år och upp</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ännu en morgon</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Guidad visning av utställningen Ännu en morgon</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Barn 7 år och upp</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Rauschenberg 100 år</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Visningsmagasinet, plan 2</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Guidad visning av utställningen Rauschenberg 100 år</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 3–6 år</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Barn 3-6 år</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>15 minuter konst</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Samlingen, plan 4</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>15-minuters visning av ett verk från Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Drop-in i Verkstan</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>I Verkstan, plan 2</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Barn i alla åldrar</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>all_ages, children</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Skapar porträtt och låtsas-jag med färg och fantasi</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Barn 7 år och upp</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Guidad visning av Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Barn 7 år och upp</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Familjevisning i Sena Picasso och Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Guidad visning av utställningen Sena Picasso</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Guidad visning av Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Guidad visning av utställningen Sena Picasso</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Guidad visning av Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Guidad visning av Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Fri fredag kl 18–20</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Fri entré till museet och guidad visning</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Guidad visning av utställningen Sena Picasso</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ännu en morgon</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Guidad visning av utställningen Ännu en morgon</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>15 minuter konst: Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>15-minuters visning av ett verk ur utställningen Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Konstgympa: för 3-5 år</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Samling i Foajen, plan 4</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Barn 3-5 år</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Konstgympa i utställningen Ännu en morgon</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>15 minuter konst</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Samlingen, plan 4</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Alla</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>15-minuters visning av ett verk från Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Drop-in i Verkstan</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>I Verkstan, plan 2</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Barn i alla åldrar</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>all_ages, children</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Skapar porträtt och låtsas-jag med färg och fantasi</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/event_category/events.xlsx
+++ b/event_category/events.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Events" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,76 +422,81 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>event_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>event_url</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>end_date_iso</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>target_group</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>target_group_normalized</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>date_iso</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Event Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date ISO</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Date ISO</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Target Group</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Target Group Normalized</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Booking Info</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Event URL</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MiniBio</t>
+          <t>Missa aldrig det roliga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bokningen öppnar onsdag 7 januari 2026 08:00</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:30-10:45</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -513,7 +506,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/forskolor</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -521,86 +514,272 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>scheduled</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Preschool</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>preschool_groups</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>Prenumerera på vårt nyhetsbrev så får du koll på evenemang, biljettsläpp och nya utställningar.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://www.nordiskamuseet.se/evenemang/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sagoyoga</t>
+          <t>Jullov på Nordiska museet</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stockholms stadsbibliotek</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:15-09:45</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No description provided in the text.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://biblioteket.stockholm.se/forskolor</t>
+          <t>10:00-17:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nordiska museet på Djurgården</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Barn &amp; Familj</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>scheduled</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>förskolegrupper</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Gör en resa i tiden på jullovet på Nordiska museet på Djurgården! Vi har öppet alla dagar.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://www.nordiskamuseet.se/evenemang/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pianomusik på nyårsafton</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11:00-13:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>STORA HALLEN</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>all_ages</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Ingår i ord. entré</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>https://www.nordiskamuseet.se/evenemang/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jullov på Nordiska museet</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10:00-17:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nordiska museet på Djurgården</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Barn &amp; Familj</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Gör en resa i tiden på jullovet på Nordiska museet på Djurgården! Vi har öppet alla dagar.</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>https://www.nordiskamuseet.se/evenemang/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Introduktion till Nordbor</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>STORA HALLEN</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>INGÅR I ORD. ENTRÉ</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>https://www.nordiskamuseet.se/evenemang/</t>
         </is>
       </c>
     </row>

--- a/event_category/events.xlsx
+++ b/event_category/events.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,17 +486,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Missa aldrig det roliga</t>
+          <t>Fri fredag kl 18–20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -511,7 +511,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>All</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -531,29 +536,29 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Prenumerera på vårt nyhetsbrev så får du koll på evenemang, biljettsläpp och nya utställningar.</t>
+          <t>Starta helgen med konst! Varje fredag är det fri entré till museet kl 18–20. Se våra</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://www.nordiskamuseet.se/evenemang/</t>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jullov på Nordiska museet</t>
+          <t>Familjevisning: för 3–6 år</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -563,22 +568,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10:00-17:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nordiska museet på Djurgården</t>
+          <t>Samling i Foajén, plan 4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Barn &amp; Familj</t>
+          <t>Lovprogram, På svenska</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>all_ages</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -593,29 +598,29 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Gör en resa i tiden på jullovet på Nordiska museet på Djurgården! Vi har öppet alla dagar.</t>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://www.nordiskamuseet.se/evenemang/</t>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pianomusik på nyårsafton</t>
+          <t>Drop-in i Verkstan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -625,17 +630,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>STORA HALLEN</t>
+          <t>I Verkstan, plan 2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lovprogram</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -655,54 +660,54 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Ingår i ord. entré</t>
+          <t>I Verkstan under jullovet skapar vi porträtt och låtsas-jag med färg och fantasi! Kostnadsfritt, ingen föranmälan krävs. Passar barn i alla åldrar tillsammans med vuxen.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://www.nordiskamuseet.se/evenemang/</t>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jullov på Nordiska museet</t>
+          <t>Familjevisning: för 7 år och upp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10:00-17:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nordiska museet på Djurgården</t>
+          <t>Samling i Foajén, plan 4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Barn &amp; Familj</t>
+          <t>Lovprogram, På svenska</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>all_ages</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,29 +722,29 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Gör en resa i tiden på jullovet på Nordiska museet på Djurgården! Vi har öppet alla dagar.</t>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://www.nordiskamuseet.se/evenemang/</t>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Introduktion till Nordbor</t>
+          <t>Familjevisning: för 7 år och upp</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -749,37 +754,7854 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Upptäck den sena delen av Pablo Picassos konstnärskap. Följ med på en guidad visning av utställningen ”Sena Picasso”. Visningen tar ca 45 minuter. Boka din plats när du köper biljett online – antalet platser är begränsat.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ännu en morgon</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Guidad visning, På engelska</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av utställningen ”Ännu en morgon – Teckning i Moderna Museets samling”. Visningen tar ca 45 minuter. Fredagar kl 18–20 fri entré till museet och till visningen. Hämta din fria visningsbiljett i informationsdisken samma dag. Begränsat antal platser.</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/annu-en-morgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15 minuter konst</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Samlingen, plan 4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Fördjupa dig i ett verk från Moderna Museets samling. Visningen tar ca 15 minuter. Fredagar kl 18–20 fri entré till museet och till visningen. Hämta din fria visningsbiljett i informationsdisken samma dag. Begränsat antal platser.</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/samlingen/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 3–6 år</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>15 minuter konst</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Samlingen, plan 4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Fördjupa dig i ett verk från Moderna Museets samling. Visningen tar ca 15 minuter. Entrébiljett till museet krävs. Ingen extra kostnad för visningen, hämta din fria visningsbiljett i informationsdisken samma dag. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/samlingen/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Drop-in i Verkstan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I Verkstan, plan 2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Lovprogram</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>I Verkstan under jullovet skapar vi porträtt och låtsas-jag med färg och fantasi! Kostnadsfritt, ingen föranmälan krävs. Passar barn i alla åldrar tillsammans med vuxen.</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av utställningen ”Den underjordiska himlen — Surrealism i Moderna Museets samling”. Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Ingen extra kostnad för visningen, hämta din fria visningsbiljett i informationsdisken samma dag. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rauschenberg 100 år</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Visningsmagasinet, plan 2</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Fira Robert Rauschenbergs hundraårsjubileum! Se ”Monogram” och ”Mud Muse”, två av Rauschenbergs mest ikoniska verk. Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Ingen extra kostnad för visningen, hämta din fria visningsbiljett i informationsdisken samma dag. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/monogram-robert-rauschenberg-och-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 3–6 år</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>15 minuter konst</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Samlingen, plan 4</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Fördjupa dig i ett verk från Moderna Museets samling. Visningen tar ca 15 minuter. Entrébiljett till museet krävs. Ingen extra kostnad för visningen, hämta din fria visningsbiljett i informationsdisken samma dag. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/samlingen/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Drop-in i Verkstan</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I Verkstan, plan 2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Lovprogram</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>I Verkstan under jullovet skapar vi porträtt och låtsas-jag med färg och fantasi! Kostnadsfritt, ingen föranmälan krävs. Passar barn i alla åldrar tillsammans med vuxen.</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från Moderna Museets samling! Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Ingen extra kostnad för visningen, hämta din fria visningsbiljett i informationsdisken samma dag. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/samlingen/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Upptäck den sena delen av Pablo Picassos konstnärskap. Följ med på en guidad visning av utställningen ”Sena Picasso”. Visningen tar ca 45 minuter. Boka din plats när du köper biljett online – antalet platser är begränsat.</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 3–6 år</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Drop-in i Verkstan</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>I Verkstan, plan 2</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Lovprogram</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>I Verkstan under jullovet skapar vi porträtt och låtsas-jag med färg och fantasi! Kostnadsfritt, ingen föranmälan krävs. Passar barn i alla åldrar tillsammans med vuxen.</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från Moderna Museets samling! Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Ingen extra kostnad för visningen, hämta din fria visningsbiljett i informationsdisken samma dag. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/samlingen/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>STORA HALLEN</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>all_ages</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>INGÅR I ORD. ENTRÉ</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>https://www.nordiskamuseet.se/evenemang/</t>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Upptäck den sena delen av Pablo Picassos konstnärskap. Följ med på en guidad visning av utställningen ”Sena Picasso”. Visningen tar ca 45 minuter. Boka din plats när du köper biljett online – antalet platser är begränsat.</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fri fredag kl 18–20</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Starta helgen med konst! Varje fredag är det fri entré till museet kl 18–20. Se våra</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 3–6 år</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Drop-in i Verkstan</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>I Verkstan, plan 2</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Lovprogram</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>I Verkstan under jullovet skapar vi porträtt och låtsas-jag med färg och fantasi! Kostnadsfritt, ingen föranmälan krävs. Passar barn i alla åldrar tillsammans med vuxen.</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Upptäck den sena delen av Pablo Picassos konstnärskap. Följ med på en guidad visning av utställningen ”Sena Picasso”. Visningen tar ca 45 minuter. Boka din plats när du köper biljett online – antalet platser är begränsat.</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Guidad visning, På engelska</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av utställningen ”Den underjordiska himlen — Surrealism i Moderna Museets samling”. Visningen tar ca 45 minuter. På fredagar kl 18–20 är det fri entré till museet och till visningen. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser.</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>15 minuter konst</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Samlingen, plan 4</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Fördjupa dig i ett verk från Moderna Museets samling. Visningen tar ca 15 minuter. Fredagar kl 18–20 fri entré till museet och till visningen. Hämta din fria visningsbiljett i informationsdisken samma dag. Begränsat antal platser.</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/samlingen/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 3–6 år</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>15 minuter konst</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Samlingen, plan 4</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Fördjupa dig i ett verk från Moderna Museets samling. Visningen tar ca 15 minuter. Entrébiljett till museet krävs. Ingen extra kostnad för visningen, hämta din fria visningsbiljett i informationsdisken samma dag. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/samlingen/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Drop-in i Verkstan</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I Verkstan, plan 2</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Lovprogram</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>I Verkstan under jullovet skapar vi porträtt och låtsas-jag med färg och fantasi! Kostnadsfritt, ingen föranmälan krävs. Passar barn i alla åldrar tillsammans med vuxen.</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ännu en morgon</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av utställningen ”Ännu en morgon – Teckning i Moderna Museets samling”. Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Ingen extra kostnad för visningen, hämta din fria visningsbiljett i informationsdisken samma dag. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/annu-en-morgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Rauschenberg 100 år</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Visningsmagasinet, plan 2</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Fira Robert Rauschenbergs hundraårsjubileum! Se ”Monogram” och ”Mud Muse”, två av Rauschenbergs mest ikoniska verk. Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Ingen extra kostnad för visningen, hämta din fria visningsbiljett i informationsdisken samma dag. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/monogram-robert-rauschenberg-och-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 3–6 år</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>15 minuter konst</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Samlingen, plan 4</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Fördjupa dig i ett verk från Moderna Museets samling. Visningen tar ca 15 minuter. Entrébiljett till museet krävs. Ingen extra kostnad för visningen, hämta din fria visningsbiljett i informationsdisken samma dag. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/samlingen/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Drop-in i Verkstan</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>I Verkstan, plan 2</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Lovprogram</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>I Verkstan under jullovet skapar vi porträtt och låtsas-jag med färg och fantasi! Kostnadsfritt, ingen föranmälan krävs. Passar barn i alla åldrar tillsammans med vuxen.</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från Moderna Museets samling! Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Ingen extra kostnad för visningen, hämta din fria visningsbiljett i informationsdisken samma dag. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/samlingen/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Lovprogram, På svenska</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/lovprogram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Upptäck den sena delen av Pablo Picassos konstnärskap. Följ med på en guidad visning av utställningen ”Sena Picasso”. Visningen tar ca 45 minuter. Boka din plats när du köper biljett online – antalet platser är begränsat.</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Upptäck den sena delen av Pablo Picassos konstnärskap. Följ med på en guidad visning av utställningen ”Sena Picasso”. Visningen tar ca 45 minuter. Boka din plats när du köper biljett online – antalet platser är begränsat.</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Guidad visning, På engelska</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Fri fredag kl 18–20</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Starta helgen med konst! Varje fredag är det fri entré till museet kl 18–20. Se våra</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Upptäck den sena delen av Pablo Picassos konstnärskap. Följ med på en guidad visning av utställningen ”Sena Picasso”. Visningen tar ca 45 minuter. Boka din plats när du köper biljett online – antalet platser är begränsat.</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ännu en morgon</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Guidad visning, På engelska</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av utställningen ”Ännu en morgon – Teckning i Moderna Museets samling”. Visningen tar ca 45 minuter. På fredagar kl 18–20 är det fri entré till museet och till visningen. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser.</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/annu-en-morgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>15 minuter konst: Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Följ med på en 15-minuters visning där vi fördjupar oss i ett verk ur utställningen ”Den underjordiska himlen – Surrealism i Moderna Museets samling”. På fredagar kl 18–20 är det fri entré till museet och till visningen. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser.</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Konstgympa: för 3-5 år</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Samling i Foajen, plan 4</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>På svenska</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Häng med på konstgympa i utställningen ”Ännu en morgon”. Tillsammans utforskar vi kroppens möjligheter och teckningens fantastiska värld. För barn 3–5 år tillsammans med deras vuxna. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/annu-en-morgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>15 minuter konst: Le Peintre av Pablo Picasso</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Utforska och lär dig mer om Pablo Picassos verk ”Le Peintre”, som visas i utställningen ”Den underjordiska himlen – Surrealism i Moderna Museets samling”. Visningen tar ca 15 minuter. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Konstgympa: För 6 år och upp</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Samling i Foajen, plan 4</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>På svenska</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Häng med på konstgympa i utställningen ”Ännu en morgon”! Tillsammans utforskar vi kroppens möjligheter och teckningens fantastiska värld. För barn från 6 år och uppåt. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/annu-en-morgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av utställningen ”Den underjordiska himlen — Surrealism i Moderna Museets samling”. Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>15 minuter konst: Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Följ med på en 15-minuters visning där vi fördjupar oss i ett verk ur utställningen ”Den underjordiska himlen – Surrealism i Moderna Museets samling”. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Konstgympa: För 6 år och upp</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Samling i Foajen, plan 4</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>På svenska</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Häng med på konstgympa i utställningen ”Ännu en morgon”! Tillsammans utforskar vi kroppens möjligheter och teckningens fantastiska värld. För barn från 6 år och uppåt. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/annu-en-morgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Rauschenberg 100 år</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Visningsmagasinet, plan 2</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Utforska och lär dig mer om Robert Rauschenbergs ikoniska verk ”Monogram” och ”Mud Muse”. Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/monogram-robert-rauschenberg-och-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 3–6 år</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Familjesöndag, På svenska</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>families</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/familjesondagar-pa-moderna-museet/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Drop-in i Verkstan</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>I Verkstan, plan 2</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Drop-in</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>I Verkstan skapar vi porträtt och låtsas-jag med färg och fantasi! Kostnadsfritt, ingen föranmälan krävs. Passar barn i alla åldrar tillsammans med vuxen.</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/familjesondagar-pa-moderna-museet/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>15 minuter konst: Le Peintre av Pablo Picasso</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Utforska och lär dig mer om Pablo Picassos verk ”Le Peintre”, som visas i utställningen ”Den underjordiska himlen – Surrealism i Moderna Museets samling”. Visningen tar ca 15 minuter. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Familjesöndag, På svenska</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>families</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/familjesondagar-pa-moderna-museet/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Familjevisning: för 7 år och upp</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Samling i Foajén, plan 4</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Familjesöndag, På svenska</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>families</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Följ med på familjevisning i ”Sena Picasso” och Moderna Museets samling. Tillsammans undersöker vi olika porträtt och funderar på hur det känns att ha ett låtsas-jag. Visningen tar cirka 45 minuter. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/familjesondagar-pa-moderna-museet/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Upptäck den sena delen av Pablo Picassos konstnärskap. Följ med på en guidad visning av utställningen ”Sena Picasso”. Visningen tar ca 45 minuter. Boka din plats när du köper biljett online – antalet platser är begränsat.</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Curatorvisning: Konsten att samla</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>I ”Konsten att samla”, plan 4</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Upptäck Moderna Museets svenska och internationella nyförvärv tillsammans med utställningens curator, Asrin Haidari, i en guidad visning om olika sätt att samla konst. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/nyforvarv-och-konsten-att-samla/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Upptäck den sena delen av Pablo Picassos konstnärskap. Följ med på en guidad visning av utställningen ”Sena Picasso”. Visningen tar ca 45 minuter. Boka din plats när du köper biljett online – antalet platser är begränsat.</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Guidad visning, På engelska</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Fri fredag kl 18–20</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Starta helgen med konst! Varje fredag är det fri entré till museet kl 18–20. Se våra</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Upptäck den sena delen av Pablo Picassos konstnärskap. Följ med på en guidad visning av utställningen ”Sena Picasso”. Visningen tar ca 45 minuter. Boka din plats när du köper biljett online – antalet platser är begränsat.</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Guidad visning, På engelska</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av utställningen ”Den underjordiska himlen — Surrealism i Moderna Museets samling”. Visningen tar ca 45 minuter. På fredagar kl 18–20 är det fri entré till museet och till visningen. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser.</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>15 minuter konst: Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Följ med på en 15-minuters visning där vi fördjupar oss i ett verk ur utställningen ”Den underjordiska himlen – Surrealism i Moderna Museets samling”. På fredagar kl 18–20 är det fri entré till museet och till visningen. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser.</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Ännu en morgon</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av utställningen ”Ännu en morgon – Teckning i Moderna Museets samling”. Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/annu-en-morgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>15 minuter konst: Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Följ med på en 15-minuters visning där vi fördjupar oss i ett verk ur utställningen ”Den underjordiska himlen – Surrealism i Moderna Museets samling”. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Rauschenberg 100 år</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Visningsmagasinet, plan 2</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Utforska och lär dig mer om Robert Rauschenbergs ikoniska verk ”Monogram” och ”Mud Muse”. Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/monogram-robert-rauschenberg-och-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Upptäck den sena delen av Pablo Picassos konstnärskap. Följ med på en guidad visning av utställningen ”Sena Picasso”. Visningen tar ca 45 minuter. Boka din plats när du köper biljett online – antalet platser är begränsat.</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Upptäck den sena delen av Pablo Picassos konstnärskap. Följ med på en guidad visning av utställningen ”Sena Picasso”. Visningen tar ca 45 minuter. Boka din plats när du köper biljett online – antalet platser är begränsat.</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Guidad visning, På engelska</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Fri fredag kl 18–20</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Starta helgen med konst! Varje fredag är det fri entré till museet kl 18–20. Se våra</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Upptäck den sena delen av Pablo Picassos konstnärskap. Följ med på en guidad visning av utställningen ”Sena Picasso”. Visningen tar ca 45 minuter. Boka din plats när du köper biljett online – antalet platser är begränsat.</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Drink &amp; Draw</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Plan 4</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Drop-in</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>En fredag i månaden bjuder vi in till kreativ after work i Kaffebaren och tecknar tillsammans. Inga förkunskaper krävs. Kostnadsfritt. Kl 18–19.30.</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/aktiviteter/drink-draw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Guidad visning, På engelska</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av utställningen ”Den underjordiska himlen — Surrealism i Moderna Museets samling”. Visningen tar ca 45 minuter. På fredagar kl 18–20 är det fri entré till museet och till visningen. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser.</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>15 minuter konst: Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Följ med på en 15-minuters visning där vi fördjupar oss i ett verk ur utställningen ”Den underjordiska himlen – Surrealism i Moderna Museets samling”. På fredagar kl 18–20 är det fri entré till museet och till visningen. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser.</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Konstgympa: för 3-5 år</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Samling i Foajen, plan 4</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>På svenska</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Häng med på konstgympa i utställningen ”Ännu en morgon”. Tillsammans utforskar vi kroppens möjligheter och teckningens fantastiska värld. För barn 3–5 år tillsammans med deras vuxna. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/annu-en-morgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Konstgympa: För 6 år och upp</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Samling i Foajen, plan 4</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>På svenska</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Häng med på konstgympa i utställningen ”Ännu en morgon”! Tillsammans utforskar vi kroppens möjligheter och teckningens fantastiska värld. För barn från 6 år och uppåt. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/annu-en-morgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Ännu en morgon</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av utställningen ”Ännu en morgon – Teckning i Moderna Museets samling”. Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/annu-en-morgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Samtal i samlingen: Teckningens många uttryck</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>I ”Ännu en morgon”, plan 4</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Samtal, På svenska</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Moderna Museets intendent Annika Gunnarsson möter curatorerna bakom teckningsbiennalen ”&amp; teckning” för ett samtal om teckningens många uttryck och dess ständiga aktualitet. 170 kr, 140 kr för studenter och pensionärer (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/annu-en-morgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>15 minuter konst: Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Följ med på en 15-minuters visning där vi fördjupar oss i ett verk ur utställningen ”Den underjordiska himlen – Surrealism i Moderna Museets samling”. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Konstgympa: För 6 år och upp</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Samling i Foajen, plan 4</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>På svenska</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Häng med på konstgympa i utställningen ”Ännu en morgon”! Tillsammans utforskar vi kroppens möjligheter och teckningens fantastiska värld. För barn från 6 år och uppåt. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/annu-en-morgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Rauschenberg 100 år</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Visningsmagasinet, plan 2</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Utforska och lär dig mer om Robert Rauschenbergs ikoniska verk ”Monogram” och ”Mud Muse”. Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/monogram-robert-rauschenberg-och-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Fördjupning: Pablo Picasso</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Biografen, plan 2</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Presentation, På svenska</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Fördjupa dig i Pablo Picassos omfattande konstnärskap! Presentationen äger rum i Biografen på plan 2 och tar cirka 45 minuter. Kostnadsfritt, begränsat antal platser. För att se utställningen ”Sena Picasso” behöver du</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Upptäck den sena delen av Pablo Picassos konstnärskap. Följ med på en guidad visning av utställningen ”Sena Picasso”. Visningen tar ca 45 minuter. Boka din plats när du köper biljett online – antalet platser är begränsat.</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Konsten att samla</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av utställningen ”Konsten att samla – Nytt i Moderna Museets samling”. Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/nyforvarv-och-konsten-att-samla/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Upptäck den sena delen av Pablo Picassos konstnärskap. Följ med på en guidad visning av utställningen ”Sena Picasso”. Visningen tar ca 45 minuter. Boka din plats när du köper biljett online – antalet platser är begränsat.</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Guidad visning, På engelska</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Fri fredag kl 18–20</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Starta helgen med konst! Varje fredag är det fri entré till museet kl 18–20. Se våra</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Upptäck den sena delen av Pablo Picassos konstnärskap. Följ med på en guidad visning av utställningen ”Sena Picasso”. Visningen tar ca 45 minuter. Boka din plats när du köper biljett online – antalet platser är begränsat.</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Ännu en morgon</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Guidad visning, På engelska</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av utställningen ”Ännu en morgon – Teckning i Moderna Museets samling”. Visningen tar ca 45 minuter. På fredagar kl 18–20 är det fri entré till museet och till visningen. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser.</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/annu-en-morgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>15 minuter konst: Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Följ med på en 15-minuters visning där vi fördjupar oss i ett verk ur utställningen ”Den underjordiska himlen – Surrealism i Moderna Museets samling”. På fredagar kl 18–20 är det fri entré till museet och till visningen. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser.</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Konstgympa: för 3-5 år</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Samling i Foajen, plan 4</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>På svenska</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Häng med på konstgympa i utställningen ”Ännu en morgon”. Tillsammans utforskar vi kroppens möjligheter och teckningens fantastiska värld. För barn 3–5 år tillsammans med deras vuxna. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/annu-en-morgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Konstgympa: För 6 år och upp</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Samling i Foajen, plan 4</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>På svenska</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Häng med på konstgympa i utställningen ”Ännu en morgon”! Tillsammans utforskar vi kroppens möjligheter och teckningens fantastiska värld. För barn från 6 år och uppåt. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/annu-en-morgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av utställningen ”Den underjordiska himlen — Surrealism i Moderna Museets samling”. Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>15 minuter konst: Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Följ med på en 15-minuters visning där vi fördjupar oss i ett verk ur utställningen ”Den underjordiska himlen – Surrealism i Moderna Museets samling”. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Konstgympa: För 6 år och upp</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Samling i Foajen, plan 4</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>På svenska</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Häng med på konstgympa i utställningen ”Ännu en morgon”! Tillsammans utforskar vi kroppens möjligheter och teckningens fantastiska värld. För barn från 6 år och uppåt. Föranmälan krävs. Kostnadsfritt för barn, 170 kr per vuxen (entrébiljett ingår).</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/annu-en-morgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Rauschenberg 100 år</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Visningsmagasinet, plan 2</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Utforska och lär dig mer om Robert Rauschenbergs ikoniska verk ”Monogram” och ”Mud Muse”. Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/monogram-robert-rauschenberg-och-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Sena Picasso</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Upptäck den sena delen av Pablo Picassos konstnärskap. Följ med på en guidad visning av utställningen ”Sena Picasso”. Visningen tar ca 45 minuter. Boka din plats när du köper biljett online – antalet platser är begränsat.</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/pablo-picasso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av utställningen ”Den underjordiska himlen — Surrealism i Moderna Museets samling”. Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Guidad visning, På engelska</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Fri fredag kl 18–20</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Starta helgen med konst! Varje fredag är det fri entré till museet kl 18–20. Se våra</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Konsten att samla</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Guidad visning, På engelska</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av utställningen ”Konsten att samla – Nytt i Moderna Museets samling”. Visningen tar ca 45 minuter. På fredagar kl 18–20 är det fri entré till museet och till visningen. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser.</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/nyforvarv-och-konsten-att-samla/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>15 minuter konst: Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Följ med på en 15-minuters visning där vi fördjupar oss i ett verk ur utställningen ”Den underjordiska himlen – Surrealism i Moderna Museets samling”. På fredagar kl 18–20 är det fri entré till museet och till visningen. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser.</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Ännu en morgon</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av utställningen ”Ännu en morgon – Teckning i Moderna Museets samling”. Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/annu-en-morgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>15 minuter konst: Den underjordiska himlen</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I utställningen, plan 4</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Följ med på en 15-minuters visning där vi fördjupar oss i ett verk ur utställningen ”Den underjordiska himlen – Surrealism i Moderna Museets samling”. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/surrealism-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Rauschenberg 100 år</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Visningsmagasinet, plan 2</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Utforska och lär dig mer om Robert Rauschenbergs ikoniska verk ”Monogram” och ”Mud Muse”. Visningen tar ca 45 minuter. Entrébiljett till museet krävs. Hämta din fria visningsbiljett i informationsdisken. Begränsat antal platser. Fri entré för alla under 19 år.</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/utstallningar/monogram-robert-rauschenberg-och-moderna-museets-samling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Moderna Museets samling</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Moderna Museet</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Guidad visning, På svenska</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning av några utvalda verk från</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>https://www.modernamuseet.se/stockholm/sv/kalender/</t>
         </is>
       </c>
     </row>

--- a/event_category/events.xlsx
+++ b/event_category/events.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,1556 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Christmas at Skansen</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10:00-16:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Skansen</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Concerts and performances</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Plan your visit by exploring the different activities along with details on dates, locations and, if not applicable during the whole day, hours.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/christmas-at-skansen/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Food and beverages at Bollnästorget</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10:00-16:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bollnästorget</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Food and drinks</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>At Bollnästorget you can enjoy a varied selection of food and drinks in an inviting outdoor environment.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://skansen.se/en/see-and-do/food-and-beverages/food-and-beverages-at-bollnastorget/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Christmas in houses and farmsteads</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10:00-15:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>houses and farmsteads</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cultural history</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Take a tour of Christmas celebrations from the 1830's and onwards. The bonfires are lit and the Christmas dinner tables from different time in history.</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/christmas-in-houses-and-farmsteads/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Engineering workshop</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10:00-16:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Skansen</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cultural history</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>The Engineering works (Mekaniska verkstaden) is based on a factory that was founded in 1889 and produced compression-ignition engines among its wares.</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/engineering-workshop/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Delsbo Farmstead</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10:00-16:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Delsbo Farmstead</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cultural history</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>The Delsbo farmstead has magnificent wall paintings and rooms for entertaining and guests.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/delsbo-farmstead/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ironmonger’s apartment</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10:00-16:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Skansen</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cultural history</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>This apartment is occupied by the ironmonger and his family. They moved in and furnished their home in the early 1930s.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/ironmongers-apartment/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Seglora church</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10:00-16:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Seglora church</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cultural history</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Seglora Church (Seglora kyrka) comes from a parish in Västergötland. The old wooden church dating from 1730 was abandoned when a new church, built of stone, was erected in 1903.</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/seglora-church/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Farm Labourer’s cottage</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10:00-16:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Skansen</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cultural history</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>The Farm Labourer’s Cottage (Statarlängan) contains dwellings for two families and shows how they lived about 1920.</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/farm-labourers-cottage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hardware store</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10:00-16:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Skansen</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cultural history</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>The period illustrated by the premises in the ironmongery, or hardware store, is the 1930s. The fittings date originally from the 1880s though the interior was partially modernized in the 1930s.</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/hardware-store/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Skansen Museum Shop in the Lodge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10:00-16:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>the Lodge</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Shops</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>In the Lodge by the Bollnäs square you find one of Skansen's museum shops. It's open in the summer and on holidays like the Advent weekends and on Chrismas Eve.</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/skansen-museum-shop-in-the-lodge/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lill-Skansen Museum Shop</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10:00-15:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Skansen</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Shops</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>In this shop you can find toys, games and animal toys along with books and other keepsakes.</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/lill-skansen-museum-shop/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>New Year’s Eve</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10.00-16.00, 20.00-24.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Skansen</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Concerts and performances</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Welcome the new year with a stunning view over Stockholm as your back drop. Our New Year's celebration dates back to 1894 and is experienced at Solliden and via live broadcast on Swedish television.</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/new-years-eve/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>New Year’s concert in Seglora Church</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.00, 22.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Seglora Church</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Concerts and performances</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Welcome to Seglora Church on New Year's Eve to celebrate the start of the new year with beautiful music!</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://skansen.se/en/see-and-do/on-stage-activities/new-years-concert/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Folk music in the Älvros Farmstead</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12:00-14:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>the Älvros Farmstead</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Concerts and performances</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Folk music has a long tradition in Sweden and at Skansen. Come visit the Älvros Farmstead to hear Skansen's Folk Musicians play!</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/folk-music-in-the-alvros-farmstead/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>The Bakery</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10:00-16:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Skansen</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Food and drinks</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>The Bakery shows a bakery from the 1870s. Cinnamon Buns, bread and cookies can be bought at the counter alongside with coffee and tea.</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/the-bakery/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Älvros Farmstead</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10:00-15:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Älvros Farmstead</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Cultural history</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>The Älvros Farmstead shows what life was like at a farmstead in Härjedalen in northern Sweden. Here, the main way of life involved cattle breeding.</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/alvros-farmstead/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Stockholm Glass Studio</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>10:00-16:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Skansen</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Shops</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>This is a glass studio from the 1930’s. Visitors can watch the skilled glassblower with traditional tools give life, form, light and colour to the glowing glass mass – a sight that has attracted people for generations.</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/stockholm-glass-studio/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Old shop</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>10:00-15:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Skansen</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Cultural history</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>The Old Shop (Kryddboden) on the left as you enter displays a black brush, originally a gun brush, which was the traditional sign of grocers.</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/old-shop/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fishtalk – learn more about the Baltic Sea</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>11.00, 14.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Skansen</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>For children</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Learn more about the inhabitants in the Baltic sea</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/see-the-big-fishes-get-fed/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Talk about horses (in Swedish)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Skansen</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>For children</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Visit the stable and learn something new about our horses.</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/talk-about-horses-in-swedish/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Meet a zookeeper at the Children’s zoo (in Swedish)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Skansen</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>For children</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Skansen's zookeepers talk about the animal of the day at the Children's zoo.</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/todays-animal-at-the-childrens-zoo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Talk about the grey seal</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Skansen</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>For children</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Skansen's zookeepers feeds and talk about the grey seal at the upper seal enclosure. In Swedish.</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/talk-about-the-grey-seal/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Snus and Match Museum</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>11:00-15:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Skansen</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Cultural history</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Snus and Match museum shows tobacco production in Sweden in the early 20th century and the development of the safety matches.</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/snus-and-match-museum/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>The Printer’s Home</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10:00-16:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Skansen</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Cultural history</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>The printer´s family lived in three rooms at the back of the printing office - a kitchen, drawing room and living room. The family ate and conducted their daily activities in the drawing room - where they also worked making the newspaper What´s New?.</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>https://skansen.se/en/the-printers-home/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Väla school</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10:00-16:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Skansen</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Cultural history</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>​Väla School (Väla skola) is an example of the vast number of schools that were built in the Swedish countryside in the middle of the 19th century.</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>https://www.skansen.se/en/see-and-do/non-bookable-activities/vala-school/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/event_category/events.xlsx
+++ b/event_category/events.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,17 +486,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Visning av samlingarna på svenska</t>
+          <t>Guidad visning: Hanna Hirsch Pauli</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>30 DECEMBER 14:00 - 15:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Följ med på en visning där vi tittar närmare på konsten i museets samlingar. Från 1500-tal till nutid.</t>
+          <t>Gå med på en visning och upptäck konstnären bakom den älskade målningen Frukostdags. Hanna Hirsch Pauli kunde konsten att med sin lätta pensel förmedla känslan av en sommardag i det gröna eller den intima samvaron under en fotogenlampa. Tillsammans med en av museets pedagoger får du lära känna personen bakom konstverken: en karismatisk, frihetssökande kvinna mitt i centrum av förra sekelskiftets kulturliv.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://www.nationalmuseum.se/kalendarium</t>
+          <t>https://www.nationalmuseum.se/guidad-visning-hanna-hirsch-pauli</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Öppen ateljé – drop-in för alla åldrar</t>
+          <t>Jullov i ateljéerna</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>2 JANUARI 13:00 - 16:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -588,29 +588,29 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Välkommen till Ateljéerna! Här kan du måla, skulptera och skapa fritt med inspiration från konsten i museet.</t>
+          <t>Vill du prova på att skapa bilder på ett magiskt och enkelt sätt? Kom till jullovsateljén och testa monotypi, en spännande tryckteknik där du rollar på färg, ritar och spårar i den. Sedan ett snabbt svisch! På med papper och tryck till. Ingen bild blir den andra lik! Fri entré. Drop-in i mån av plats.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://www.nationalmuseum.se/kalendarium</t>
+          <t>https://www.nationalmuseum.se/jullov</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Visning av samlingarna på svenska</t>
+          <t>Guidad visning: Hanna Hirsch Pauli</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>2 JANUARI 14:00 - 15:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -645,29 +645,29 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Följ med på en visning där vi tittar närmare på konsten i museets samlingar. Från 1500-tal till nutid.</t>
+          <t>Gå med på en visning och upptäck konstnären bakom den älskade målningen Frukostdags. Hanna Hirsch Pauli kunde konsten att med sin lätta pensel förmedla känslan av en sommardag i det gröna eller den intima samvaron under en fotogenlampa. Tillsammans med en av museets pedagoger får du lära känna personen bakom konstverken: en karismatisk, frihetssökande kvinna mitt i centrum av förra sekelskiftets kulturliv.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://www.nationalmuseum.se/kalendarium</t>
+          <t>https://www.nationalmuseum.se/guidad-visning-hanna-hirsch-pauli</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Öppen ateljé – drop-in för alla åldrar</t>
+          <t>Jullov i ateljéerna</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>3 JANUARI 13:00 - 16:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -702,29 +702,29 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Välkommen till Ateljéerna! Här kan du måla, skulptera och skapa fritt med inspiration från konsten i museet.</t>
+          <t>Vill du prova på att skapa bilder på ett magiskt och enkelt sätt? Kom till jullovsateljén och testa monotypi, en spännande tryckteknik där du rollar på färg, ritar och spårar i den. Sedan ett snabbt svisch! På med papper och tryck till. Ingen bild blir den andra lik! Fri entré. Drop-in i mån av plats.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://www.nationalmuseum.se/kalendarium</t>
+          <t>https://www.nationalmuseum.se/jullov</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Visning av samlingarna på svenska</t>
+          <t>Guidad visning: Samlingarna</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>3 JANUARI 14:00 - 15:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -759,29 +759,29 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Följ med på en visning där vi tittar närmare på konsten i museets samlingar. Från 1500-tal till nutid.</t>
+          <t>Följ med på en guidad visning genom museet där pedagogen blandar berättelser om museets historia med fördjupningar om några av samlingarnas fantastiska konstverk.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://www.nationalmuseum.se/kalendarium</t>
+          <t>https://www.nationalmuseum.se/guidad-visning-samlingarna</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Öppen ateljé – drop-in för alla åldrar</t>
+          <t>Guidad visning: Hanna Hirsch Pauli</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>3 JANUARI 15:30 - 16:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -816,29 +816,29 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Välkommen till Ateljéerna! Här kan du måla, skulptera och skapa fritt med inspiration från konsten i museet.</t>
+          <t>Gå med på en visning och upptäck konstnären bakom den älskade målningen Frukostdags. Hanna Hirsch Pauli kunde konsten att med sin lätta pensel förmedla känslan av en sommardag i det gröna eller den intima samvaron under en fotogenlampa. Tillsammans med en av museets pedagoger får du lära känna personen bakom konstverken: en karismatisk, frihetssökande kvinna mitt i centrum av förra sekelskiftets kulturliv.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://www.nationalmuseum.se/kalendarium</t>
+          <t>https://www.nationalmuseum.se/guidad-visning-hanna-hirsch-pauli</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Visning av samlingarna på svenska</t>
+          <t>Jullov i ateljéerna</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>4 JANUARI 13:00 - 16:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -873,29 +873,29 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Följ med på en visning där vi tittar närmare på konsten i museets samlingar. Från 1500-tal till nutid.</t>
+          <t>Vill du prova på att skapa bilder på ett magiskt och enkelt sätt? Kom till jullovsateljén och testa monotypi, en spännande tryckteknik där du rollar på färg, ritar och spårar i den. Sedan ett snabbt svisch! På med papper och tryck till. Ingen bild blir den andra lik! Fri entré. Drop-in i mån av plats.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://www.nationalmuseum.se/kalendarium</t>
+          <t>https://www.nationalmuseum.se/jullov</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Öppen ateljé – drop-in för alla åldrar</t>
+          <t>Guidad visning: Porträtt!</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>4 JANUARI 14:00 - 15:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -930,29 +930,29 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Välkommen till Ateljéerna! Här kan du måla, skulptera och skapa fritt med inspiration från konsten i museet.</t>
+          <t>Gå med på en visning av utställningen Porträtt! – en resa från 1500-talet till idag fylld av avbildade människor. Du möter kungligheter, konstnärer, näringslivsprofiler och andra som på olika sätt valts ut och porträtterats i sin tid.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://www.nationalmuseum.se/kalendarium</t>
+          <t>https://www.nationalmuseum.se/guidad-visning-porträtt</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Visning av samlingarna på svenska</t>
+          <t>Guidad visning: Hanna Hirsch Pauli</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>4 JANUARI 15:30 - 16:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -987,69 +987,2431 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Följ med på en visning där vi tittar närmare på konsten i museets samlingar. Från 1500-tal till nutid.</t>
+          <t>Gå med på en visning och upptäck konstnären bakom den älskade målningen Frukostdags. Hanna Hirsch Pauli kunde konsten att med sin lätta pensel förmedla känslan av en sommardag i det gröna eller den intima samvaron under en fotogenlampa. Tillsammans med en av museets pedagoger får du lära känna personen bakom konstverken: en karismatisk, frihetssökande kvinna mitt i centrum av förra sekelskiftets kulturliv.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://www.nationalmuseum.se/kalendarium</t>
+          <t>https://www.nationalmuseum.se/guidad-visning-hanna-hirsch-pauli</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Öppen ateljé – drop-in för alla åldrar</t>
+          <t>Guidad visning: Samlingarna</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7 JANUARI 11:30 - 12:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning genom museet där pedagogen blandar berättelser om museets historia med fördjupningar om några av samlingarnas fantastiska konstverk.</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-samlingarna</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Guidad visning: Porträtt!</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8 JANUARI 14:00 - 15:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Gå med på en visning av utställningen Porträtt! – en resa från 1500-talet till idag fylld av avbildade människor. Du möter kungligheter, konstnärer, näringslivsprofiler och andra som på olika sätt valts ut och porträtterats i sin tid.</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-porträtt</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Guidad visning: Samlingarna</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10 JANUARI 14:00 - 15:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Följ med på en guidad visning genom museet där pedagogen blandar berättelser om museets historia med fördjupningar om några av samlingarnas fantastiska konstverk.</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-samlingarna</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Guidad visning: Porträtt!</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>2026-01-11</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>2026-01-11</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>all_ages</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Välkommen till Ateljéerna! Här kan du måla, skulptera och skapa fritt med inspiration från konsten i museet.</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>https://www.nationalmuseum.se/kalendarium</t>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>11 JANUARI 14:00 - 15:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Gå med på en visning av utställningen Porträtt! – en resa från 1500-talet till idag fylld av avbildade människor. Du möter kungligheter, konstnärer, näringslivsprofiler och andra som på olika sätt valts ut och porträtterats i sin tid.</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-porträtt</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Introduktion till Nationalmuseum</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13 JANUARI 13:00 - 13:20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Välkommen till Nationalmuseum – Sveriges konst- och designmuseum! Med den här korta introduktionen bjuder vi in dig till att upptäcka ett urval höjdpunkter i museets samlingar som spänner över mer än sexhundra år. En av museets guider berättar och visar bilder. Gratis.</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/introduktion-till-nationalmuseum</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Guidad visning: Porträtt!</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>13 JANUARI 14:00 - 15:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Gå med på en visning av utställningen Porträtt! – en resa från 1500-talet till idag fylld av avbildade människor. Du möter kungligheter, konstnärer, näringslivsprofiler och andra som på olika sätt valts ut och porträtterats i sin tid.</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-porträtt</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Introduktion till Nationalmuseum</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>14 JANUARI 13:00 - 13:20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Välkommen till Nationalmuseum – Sveriges konst- och designmuseum! Med den här korta introduktionen bjuder vi in dig till att upptäcka ett urval höjdpunkter i museets samlingar som spänner över mer än sexhundra år. En av museets guider berättar och visar bilder. Gratis.</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/introduktion-till-nationalmuseum</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guidad visning: Nationalmuseum på 60 minuter</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>14 JANUARI 14:00 - 15:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>I den här guidade visningen ger vi oss ut på en upptäcktsfärd bland samlingarna och gör några utvalda nedslag inom konst, konsthantverk och design. Upplev både nyförvärvade konstverk och äldre favoriter.</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-nationalmuseum-på-60-minuter</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guidad visning: Porträtt!</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>15 JANUARI 14:00 - 15:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Gå med på en visning av utställningen Porträtt! – en resa från 1500-talet till idag fylld av avbildade människor. Du möter kungligheter, konstnärer, näringslivsprofiler och andra som på olika sätt valts ut och porträtterats i sin tid.</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-porträtt</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Babyvisning: Siden, rysch och pysch</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>16 JANUARI 13:00 - 14:30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Babies</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>babies</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Babyvisning på Nationalmuseum för nyfikna vuxna med barn i sitt- och krypålder (3–11 mån). Vi tittar på 1700-talsporträtt, och chillar med bebisarna. I ateljén blir det tyllhav à la Rokoko.</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/babyvisning-siden-rysch-och-pysch</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NM Skulpturkroki</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>17 JANUARI 11:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Prova på att teckna kroki med skulpturer som modeller. Vi tecknar dem ur olika vinklar och i olika tempo och övar ögat i att se former, riktningar och rörelser i något som är helt stilla. Vässa blicken och njut av atmosfären i Skulpturgården – museets kanske vackraste rum!</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/skulpturkroki</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guidad visning: Nationalmuseum på 60 minuter</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>17 JANUARI 14:00 - 15:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>I den här guidade visningen ger vi oss ut på en upptäcktsfärd bland samlingarna och gör några utvalda nedslag inom konst, konsthantverk och design. Upplev både nyförvärvade konstverk och äldre favoriter.</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-nationalmuseum-på-60-minuter</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Familjevisning: Nyfiken på färg!</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>17 JANUARI 14:00 - 15:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Families</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>families</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Följ med på en spännande och lekfull familjevisning där vi tillsammans upptäcker färgernas fantastiska värld i konsten</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/familjevisning-nyfiken-på-färg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guidad visning: Porträtt!</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>17 JANUARI 15:30 - 16:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Gå med på en visning av utställningen Porträtt! – en resa från 1500-talet till idag fylld av avbildade människor. Du möter kungligheter, konstnärer, näringslivsprofiler och andra som på olika sätt valts ut och porträtterats i sin tid.</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-porträtt</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>På engelska: Introduktion till Nationalmuseum</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>18 JANUARI 12:30 - 12:50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Välkommen till Nationalmuseum – Sveriges konst- och designmuseum! Med den här korta introduktionen bjuder vi in dig till att upptäcka ett urval höjdpunkter i museets samlingar som spänner över mer än sexhundra år. En av museets kunniga guider berättar och visar bilder. På engelska.</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/på-engelska-introduktion-till-nationalmuseum</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Introduktion till Nationalmuseum</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>18 JANUARI 13:00 - 13:20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Välkommen till Nationalmuseum – Sveriges konst- och designmuseum! Med den här korta introduktionen bjuder vi in dig till att upptäcka ett urval höjdpunkter i museets samlingar som spänner över mer än sexhundra år. En av museets guider berättar och visar bilder. Gratis.</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/introduktion-till-nationalmuseum</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Familjedag i ateljéerna</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>18 JANUARI 13:00 - 16:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Families</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>families</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>På söndagar utforskar vi olika material och tekniker i Nationalmuseums ateljéer. För barn från 4 år och vuxna tillsammans. Drop-in i mån av plats.</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/besök-museet/barn-och-familj/familjedag-i-ateljéerna</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guidad visning: Porträtt!</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>18 JANUARI 14:00 - 15:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Gå med på en visning av utställningen Porträtt! – en resa från 1500-talet till idag fylld av avbildade människor. Du möter kungligheter, konstnärer, näringslivsprofiler och andra som på olika sätt valts ut och porträtterats i sin tid.</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-porträtt</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Introduktion till Nationalmuseum</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20 JANUARI 13:00 - 13:20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Välkommen till Nationalmuseum – Sveriges konst- och designmuseum! Med den här korta introduktionen bjuder vi in dig till att upptäcka ett urval höjdpunkter i museets samlingar som spänner över mer än sexhundra år. En av museets guider berättar och visar bilder. Gratis.</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/introduktion-till-nationalmuseum</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guidad visning: Porträtt!</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20 JANUARI 14:00 - 15:00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Gå med på en visning av utställningen Porträtt! – en resa från 1500-talet till idag fylld av avbildade människor. Du möter kungligheter, konstnärer, näringslivsprofiler och andra som på olika sätt valts ut och porträtterats i sin tid.</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-porträtt</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Introduktion till Nationalmuseum</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21 JANUARI 13:00 - 13:20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Välkommen till Nationalmuseum – Sveriges konst- och designmuseum! Med den här korta introduktionen bjuder vi in dig till att upptäcka ett urval höjdpunkter i museets samlingar som spänner över mer än sexhundra år. En av museets guider berättar och visar bilder. Gratis.</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/introduktion-till-nationalmuseum</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guidad visning: Nationalmuseum på 60 minuter</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21 JANUARI 14:00 - 15:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>I den här guidade visningen ger vi oss ut på en upptäcktsfärd bland samlingarna och gör några utvalda nedslag inom konst, konsthantverk och design. Upplev både nyförvärvade konstverk och äldre favoriter.</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-nationalmuseum-på-60-minuter</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guidad visning: Porträtt!</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22 JANUARI 14:00 - 15:00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Gå med på en visning av utställningen Porträtt! – en resa från 1500-talet till idag fylld av avbildade människor. Du möter kungligheter, konstnärer, näringslivsprofiler och andra som på olika sätt valts ut och porträtterats i sin tid.</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-porträtt</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Gratis kvällsdrop-in i ateljén</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22 JANUARI 17:00 - 19:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Kom och var kreativ i Nationalmuseums ateljé! På torsdagskvällar kan du bekanta dig med några av konstens grundmaterial och tekniker. Prova på att teckna eller att måla med akvarell. Gratis drop-in. Inga förkunskaper behövs. Öppet för alla!</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/gratis-kvällsdrop-in-i-ateljén</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NM Studio: Porträtt i kollageform med Emma Dominguez</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22 JANUARI 17:30 - 20:00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Är du mellan 17 och 29 år och sugen på att prova på olika konstnärliga material och tekniker? Kom till Nationalmuseums ateljé och NM Studio. I vårterminens första workshop får du öva på att berätta din egen historia och skapa ett eget porträtt genom collage tillsammans med konstnären Emma Dominguez.</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/nm-studio-porträtt-i-collageform-med-emma-dominguez</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Se mer i familjeporträtt från olika tider! Kom och samtala om konst</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22 JANUARI 18:00 - 19:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Families</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>families</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Vill du se, prata om och utforska konst tillsammans med andra? I årets första tillfälle av samtalsserien Se Mer! pratar vi tillsammans om familjeporträtt – om bilder av nära, kära och arvfiender. Kom som du är inga förkunskaper eller förberedelser behövs.</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/se-mer-i-familjeporträtt-från-olika-tider-kom-och-samtala-om-konst</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Lördagsvisning: Att visa sig. Porträttet som makt och symbol</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24 JANUARI 13:00 - 14:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Vem får synas – och hur? I en serie om tre fördjupande lördagsvisningar dyker vi ner i porträttets värld och utforskar allt från kunglig glans till dagens selfie-kultur. Den här gången tittar vi närmare på porträttet som makt och symbol.</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/lördagsvisning-att-visa-sig-porträttet-som-makt-och-symbol</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guidad visning: Nationalmuseum på 60 minuter</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24 JANUARI 14:00 - 15:00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>I den här guidade visningen ger vi oss ut på en upptäcktsfärd bland samlingarna och gör några utvalda nedslag inom konst, konsthantverk och design. Upplev både nyförvärvade konstverk och äldre favoriter.</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-nationalmuseum-på-60-minuter</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guidad visning: Porträtt!</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24 JANUARI 15:30 - 16:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Gå med på en visning av utställningen Porträtt! – en resa från 1500-talet till idag fylld av avbildade människor. Du möter kungligheter, konstnärer, näringslivsprofiler och andra som på olika sätt valts ut och porträtterats i sin tid.</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-porträtt</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>På engelska: Introduktion till Nationalmuseum</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25 JANUARI 12:30 - 12:50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Välkommen till Nationalmuseum – Sveriges konst- och designmuseum! Med den här korta introduktionen bjuder vi in dig till att upptäcka ett urval höjdpunkter i museets samlingar som spänner över mer än sexhundra år. En av museets kunniga guider berättar och visar bilder. På engelska.</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/på-engelska-introduktion-till-nationalmuseum</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Introduktion till Nationalmuseum</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25 JANUARI 13:00 - 13:20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Välkommen till Nationalmuseum – Sveriges konst- och designmuseum! Med den här korta introduktionen bjuder vi in dig till att upptäcka ett urval höjdpunkter i museets samlingar som spänner över mer än sexhundra år. En av museets guider berättar och visar bilder. Gratis.</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/introduktion-till-nationalmuseum</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Familjedag i ateljéerna</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25 JANUARI 13:00 - 16:00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Families</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>families</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>På söndagar utforskar vi olika material och tekniker i Nationalmuseums ateljéer. För barn från 4 år och vuxna tillsammans. Drop-in i mån av plats.</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/besök-museet/barn-och-familj/familjedag-i-ateljéerna</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guidad visning: Porträtt!</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25 JANUARI 14:00 - 15:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Gå med på en visning av utställningen Porträtt! – en resa från 1500-talet till idag fylld av avbildade människor. Du möter kungligheter, konstnärer, näringslivsprofiler och andra som på olika sätt valts ut och porträtterats i sin tid.</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-porträtt</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Introduktion till Nationalmuseum</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>27 JANUARI 13:00 - 13:20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Välkommen till Nationalmuseum – Sveriges konst- och designmuseum! Med den här korta introduktionen bjuder vi in dig till att upptäcka ett urval höjdpunkter i museets samlingar som spänner över mer än sexhundra år. En av museets guider berättar och visar bilder. Gratis.</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/introduktion-till-nationalmuseum</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guidad visning: Porträtt!</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27 JANUARI 14:00 - 15:00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Gå med på en visning av utställningen Porträtt! – en resa från 1500-talet till idag fylld av avbildade människor. Du möter kungligheter, konstnärer, näringslivsprofiler och andra som på olika sätt valts ut och porträtterats i sin tid.</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-porträtt</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Introduktion till Nationalmuseum</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28 JANUARI 13:00 - 13:20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Välkommen till Nationalmuseum – Sveriges konst- och designmuseum! Med den här korta introduktionen bjuder vi in dig till att upptäcka ett urval höjdpunkter i museets samlingar som spänner över mer än sexhundra år. En av museets guider berättar och visar bilder. Gratis.</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/introduktion-till-nationalmuseum</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guidad visning: Nationalmuseum på 60 minuter</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>28 JANUARI 14:00 - 15:00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>I den här guidade visningen ger vi oss ut på en upptäcktsfärd bland samlingarna och gör några utvalda nedslag inom konst, konsthantverk och design. Upplev både nyförvärvade konstverk och äldre favoriter.</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-nationalmuseum-på-60-minuter</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guidad visning: Porträtt!</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29 JANUARI 14:00 - 15:00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Gå med på en visning av utställningen Porträtt! – en resa från 1500-talet till idag fylld av avbildade människor. Du möter kungligheter, konstnärer, näringslivsprofiler och andra som på olika sätt valts ut och porträtterats i sin tid.</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/guidad-visning-porträtt</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Gratis kvällsdrop-in i ateljén</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>29 JANUARI 17:00 - 19:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Kom och var kreativ i Nationalmuseums ateljé! På torsdagskvällar kan du bekanta dig med några av konstens grundmaterial och tekniker. Prova på att teckna eller att måla med akvarell. Gratis drop-in. Inga förkunskaper behövs. Öppet för alla!</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/gratis-kvällsdrop-in-i-ateljén</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Torsdagskväll: Library Session med Sonic Erection</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29 JANUARI 17:30 - 18:15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Fri entré på Nationalmuseum på torsdagskvällar med konst, bar och musik. Det Stockholmsbaserade kollektivet Sonic Erection tillsammans med fanzinet Lucky4ever bjuder in till en stämningsfylld kväll i gamla biblioteket där text och poesi tillsammans med ambient musik skapar en audiovisuell helkroppsupplevelse. För dig mellan 17 och 29.</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/torsdagskväll-library-session-med-sonic-erection</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Konsten att dansa – prova på att dansa Bachata</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29 JANUARI 17:30 - 19:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Välkommen till en ny programserie på torsdagskvällar med musik, rytm och dansglädje! Lär dig grunderna i Bachata och ge dig sen ut i dansens virvlar. Kom som du är, ensam eller med sällskap, öva, skratta, dansa och njut!</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/konsten-att-dansa</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Torsdagskväll: Library Session med Sonic Erection</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29 JANUARI 19:00 - 19:45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>all_ages</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Fri entré på Nationalmuseum på torsdagskvällar med konst, bar och musik. Det Stockholmsbaserade kollektivet Sonic Erection tillsammans med fanzinet Lucky4ever bjuder in till en stämningsfylld kväll i gamla biblioteket där text och poesi tillsammans med ambient musik skapar en audiovisuell helkroppsupplevelse. För dig mellan 17 och 29.</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>https://www.nationalmuseum.se/torsdagskväll-library-session-med-sonic-erection</t>
         </is>
       </c>
     </row>
